--- a/documents/troubleshooting.xlsx
+++ b/documents/troubleshooting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\chatbot_hipotese\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FF6687-AF60-4FEA-9FEF-A230F4E23CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E26248-3D69-4B0C-B668-16AEE1645E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{FECC2DB1-AD25-4A84-8CFF-001A97E8E6FD}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="609">
   <si>
     <t>type</t>
   </si>
@@ -897,6 +897,978 @@
   </si>
   <si>
     <t>If the compression is less than 60% and no other damage is apparent, then tighten the gasket to the correct setpoint. If the compression is greater than 60%, scrap the gasket, and replace it with a new gasket; flexitallic gasket corrugations must be compressed to a minimum of 60% of the original thickness for effective sealing. If the gasket is compressed beyond 90%, it becomes ineffective.</t>
+  </si>
+  <si>
+    <t>Pressure safety valve leaking</t>
+  </si>
+  <si>
+    <t>Improper setting</t>
+  </si>
+  <si>
+    <t>Valve-disc-to-seat contact area too large, causing valve simmering to take place</t>
+  </si>
+  <si>
+    <t>Correct the setting, or contact maintenance; /Warning/ Ensure that a gag is not left in place or being used to try to stop leakage across valve seat; Pressure tests the valve to lift at 110 % of the working pressure of the boiler.</t>
+  </si>
+  <si>
+    <t>Reface the seat face and disc face to maintain a 1/2 degree angle differential between the points of contact.</t>
+  </si>
+  <si>
+    <t>Pressure safety valve leaking (continued)</t>
+  </si>
+  <si>
+    <t>Cracked or broken compression spring</t>
+  </si>
+  <si>
+    <t>Check the stem TIR to ensure that the stem is not bent. Straighten the stem if necessary.</t>
+  </si>
+  <si>
+    <t>Perform a visual inspection of the spring for cracks or breaks; If the spring can be taken off valve without being broken, hang it on a string, and strike it very lightly with a peen hammer; If the spring rings loudly and clearly, it does not have a crack; If the spring makes a clunking sound, it is cracked; Replace it.</t>
+  </si>
+  <si>
+    <t>intermittent vibration on valves and associated piping</t>
+  </si>
+  <si>
+    <t>Improper loading of pipe hangers</t>
+  </si>
+  <si>
+    <t>Resonance</t>
+  </si>
+  <si>
+    <t>Water hammer</t>
+  </si>
+  <si>
+    <t>Evaluate the current setpoints to ensure that they meet specifications.</t>
+  </si>
+  <si>
+    <t>Ensure that the steam traps are operating and do not need maintenance; Clean the traps as necessary; Open the drain valves during any plant shutdown.</t>
+  </si>
+  <si>
+    <t>Remove anything that should not be on the piping; Piping and valves may be loaded down with scaffolding or maintenance walkways; This can alter the mass, affecting the natural frequency and causing the scaffolding or walkways to vibrate in tune with a pump or motor having the same natural frequency; This vibration can have devastating results.</t>
+  </si>
+  <si>
+    <t>Continual leakage across a butterfly valve</t>
+  </si>
+  <si>
+    <t>Valve may be installed in the wrong direction</t>
+  </si>
+  <si>
+    <t>Piping misalignment with valve</t>
+  </si>
+  <si>
+    <t>Neoprene valve seat and gasket</t>
+  </si>
+  <si>
+    <t>Check the direction arrow casting on the side of valve body; Reverse the body installation if the directional arrow indicates that the valve is incorrectly installed.</t>
+  </si>
+  <si>
+    <t>Inspect and report the findings to maintenance; Piping misalignment can distort the valve body and can cause the disc shaft trunnions to get out of alignment and bind up.</t>
+  </si>
+  <si>
+    <t>Check the valve seat to ensure that it did not kink or roll during installation; Straighten as necessary.</t>
+  </si>
+  <si>
+    <t>hand-operated valve difficult to open</t>
+  </si>
+  <si>
+    <t>Thread damage</t>
+  </si>
+  <si>
+    <t>Shaft bent</t>
+  </si>
+  <si>
+    <t>Valve body twisted</t>
+  </si>
+  <si>
+    <t>piping misaligned to valve body</t>
+  </si>
+  <si>
+    <t>Take the stem out of the valve. and run a die-nut down the thread if it is a standard thread; If it is an Acme thread, use a thread chaser or a fine file to remove any imperfections.</t>
+  </si>
+  <si>
+    <t>Remove the shaft, and check TIR; Straighten the shaft, and reinstall in the valve.</t>
+  </si>
+  <si>
+    <t>Separate the pipe from the valve, and observe how far the pipe moves out of alignment; if the pipe is out of alignment, the pipe must be bent until it meets the valve nozzle with zero cold spring; /Warning/ If a hand-operated valve cannot be moved without difficulty, it requires maintenance; Never force a valve by using a wrench.</t>
+  </si>
+  <si>
+    <t>Hand-operated valve difficult to open</t>
+  </si>
+  <si>
+    <t>Bonnet stem nut out of alignment with valve seat</t>
+  </si>
+  <si>
+    <t>Gland packing too tight</t>
+  </si>
+  <si>
+    <t>Gland packing badly installed</t>
+  </si>
+  <si>
+    <t>Contact maintenance and the machineshop to correct this problem and replace the valve.</t>
+  </si>
+  <si>
+    <t>Slacken off the gland follower, and allow the packing to move slightly.</t>
+  </si>
+  <si>
+    <t>Repack the valve.</t>
+  </si>
+  <si>
+    <t>Noisy drive</t>
+  </si>
+  <si>
+    <t>chain drives</t>
+  </si>
+  <si>
+    <t>Incorrect tension</t>
+  </si>
+  <si>
+    <t>Insufficient lubrication</t>
+  </si>
+  <si>
+    <t>Worn drive</t>
+  </si>
+  <si>
+    <t>Misalignment of sprockets</t>
+  </si>
+  <si>
+    <t>Loose casing or bearings</t>
+  </si>
+  <si>
+    <t>Pitch too large</t>
+  </si>
+  <si>
+    <t>Check the slack side span for 2% deflection, and adjust the chain tension as necessary.</t>
+  </si>
+  <si>
+    <t>Check the drive for proper lubrication; Lubricate the drive as necessary.</t>
+  </si>
+  <si>
+    <t>Check the chain and sprocket for wear, and have it replaced if worn.</t>
+  </si>
+  <si>
+    <t>Check the alignment, and realign as necessary.</t>
+  </si>
+  <si>
+    <t>Draw up all bolts, and brace the casings as required.</t>
+  </si>
+  <si>
+    <t>Check chain drive spec chart; Change the chain.</t>
+  </si>
+  <si>
+    <t>Chain climbing sprocket teeth</t>
+  </si>
+  <si>
+    <t>Chain worn</t>
+  </si>
+  <si>
+    <t>Insufficient tension</t>
+  </si>
+  <si>
+    <t>Material in tooth pockets</t>
+  </si>
+  <si>
+    <t>Chains &amp; sprockets fit poorly</t>
+  </si>
+  <si>
+    <t>Insufficient chain wrap</t>
+  </si>
+  <si>
+    <t>Excessive chain slack</t>
+  </si>
+  <si>
+    <t>Check for chain wear. Replace chain as necessary.</t>
+  </si>
+  <si>
+    <t>Check chain tension. Increase tension as needed.</t>
+  </si>
+  <si>
+    <t>Clean sprocket. Eliminate cause of material buildup.</t>
+  </si>
+  <si>
+    <t>Notify the maintenance department.</t>
+  </si>
+  <si>
+    <t>Change the driver arrangement to get more sprocket-teeth in contact with the chain, or use an idler take-up sprocket to increase the wrap.</t>
+  </si>
+  <si>
+    <t>Adjust the centers or take-up sprockets for a 2% final deflection.</t>
+  </si>
+  <si>
+    <t>Drive is running excessrvely hot</t>
+  </si>
+  <si>
+    <t>Running too fast</t>
+  </si>
+  <si>
+    <t>Chain operating too fast for bath lubrication</t>
+  </si>
+  <si>
+    <t>Chain immersed too deeply in oil bath in bath-lubricated drive</t>
+  </si>
+  <si>
+    <t>Check drive for proper speed. Adjust as required.</t>
+  </si>
+  <si>
+    <t>Check for the correct type and amount of lubricant.</t>
+  </si>
+  <si>
+    <t>Use the oil stream system to lubricate the chain.</t>
+  </si>
+  <si>
+    <t>Check the drive for obstructions, and check the guard design; Remove all obstructions.</t>
+  </si>
+  <si>
+    <t>Chain hanging in sprocket</t>
+  </si>
+  <si>
+    <t>Wont sprocket teeth</t>
+  </si>
+  <si>
+    <t>Material buildup on driver sprocket tooth pockets</t>
+  </si>
+  <si>
+    <t>Sticky lubricant</t>
+  </si>
+  <si>
+    <t>Check for chain wear, and replace the chain as necessary.</t>
+  </si>
+  <si>
+    <t>Clean and lubricate the sprockets correctly.</t>
+  </si>
+  <si>
+    <t>Check the grade of the lubricant, and refer to the lubricant chart for that particular chain drive configuration; Replace with the recommended lubricant as necessary.</t>
+  </si>
+  <si>
+    <t>Chain whip</t>
+  </si>
+  <si>
+    <t>Stiff chain joints</t>
+  </si>
+  <si>
+    <t>High pulsating loads</t>
+  </si>
+  <si>
+    <t>Nonuniforrn chain wear</t>
+  </si>
+  <si>
+    <t>Correct the tension; The tension should be set to deflect 2% of the pitch between the driver and the driven sprockets.</t>
+  </si>
+  <si>
+    <t>Replace the bad joints, or install a new chain.</t>
+  </si>
+  <si>
+    <t>Install a chain take-up or idler sprocket, or adjust the centers of the sprockets.</t>
+  </si>
+  <si>
+    <t>Reduce the load where possible, or replace the chain with one of suitable length.</t>
+  </si>
+  <si>
+    <t>Investigate why the chain is wearing in an irregular manner; Replace the chain.</t>
+  </si>
+  <si>
+    <t>Misalignment of drive</t>
+  </si>
+  <si>
+    <t>Worn and corroded chain</t>
+  </si>
+  <si>
+    <t>Inadequate lubrication</t>
+  </si>
+  <si>
+    <t>Corrosion on the chain</t>
+  </si>
+  <si>
+    <t>Excessive overload</t>
+  </si>
+  <si>
+    <t>Material buildup in joints</t>
+  </si>
+  <si>
+    <t>Peening edges of side plate metal</t>
+  </si>
+  <si>
+    <t>Have maintenance check the alignment and correct as necessary.</t>
+  </si>
+  <si>
+    <t>Replace the chain; Provide the correct lubrication</t>
+  </si>
+  <si>
+    <t>Clean and lubricate the chain correctly; Refer to the lube manual for correct lubricant and application.</t>
+  </si>
+  <si>
+    <t>Remove any corrosion, lubricate the chain correctly, and protect the chain from further corrosion by keeping it clean and well lubricated.</t>
+  </si>
+  <si>
+    <t>Identify the overload cause, and reduce it.</t>
+  </si>
+  <si>
+    <t>Clean and lubricate the chain more frequently.</t>
+  </si>
+  <si>
+    <t>Check for chain interference, and repair as necessary to remove peeping marks.</t>
+  </si>
+  <si>
+    <t>Wear on chain link plates or sides of sprocket teeth</t>
+  </si>
+  <si>
+    <t>Broken pins, bushings, or rollers</t>
+  </si>
+  <si>
+    <t>Misalignment of the drive chain</t>
+  </si>
+  <si>
+    <t>Chain speed too high for the pitch and sprocket size</t>
+  </si>
+  <si>
+    <t>Material buildup in sprocket tooth pockets</t>
+  </si>
+  <si>
+    <t>Remove the chain, and correct the alignment of the sprockets and shafts.</t>
+  </si>
+  <si>
+    <t>Heavy shock or suddenly applied loads</t>
+  </si>
+  <si>
+    <t>Reduce the shock loads.</t>
+  </si>
+  <si>
+    <t>Remove material buildup from the sprockets.</t>
+  </si>
+  <si>
+    <t>Check the number of sprocket teeth to ensure that it is within the recommended limits for the speed involved; Use a shorter pitch chain of equal or greater strength; Select a sprocket with more teeth, if necessary.</t>
+  </si>
+  <si>
+    <t>Broken pins. bushings, or rollers (continued)</t>
+  </si>
+  <si>
+    <t>Poorly fitted sprockets</t>
+  </si>
+  <si>
+    <t>Chain or sprocket corrosion</t>
+  </si>
+  <si>
+    <t>Check the shaft runout for eccentricity paying particular attention to the locking device on the sprocket hub;The locking device can draw the hub off-center if there is a loose fit on the shaft</t>
+  </si>
+  <si>
+    <t>Lubricate the chain correctly-</t>
+  </si>
+  <si>
+    <t>Check the Sprockes for wear, and correct the bottom diameter.</t>
+  </si>
+  <si>
+    <t>Remove any corrosion from the chain or sprocket, lubricate the chain correctly, and protect the chain and sprocke from further corrosion by keeping the chain clean and well lubricated.</t>
+  </si>
+  <si>
+    <t>Pulsation</t>
+  </si>
+  <si>
+    <t>Chain tension too low</t>
+  </si>
+  <si>
+    <t>Chain speed too slow</t>
+  </si>
+  <si>
+    <t>Obstruction</t>
+  </si>
+  <si>
+    <t>Heavy or tacky lubricants</t>
+  </si>
+  <si>
+    <t>Sprockets with too few teeth, causing a large amount of chordal action</t>
+  </si>
+  <si>
+    <t>Eccentricity</t>
+  </si>
+  <si>
+    <t>Adjust the take-ups to restore the proper tension.</t>
+  </si>
+  <si>
+    <t>Increase the size of the sprocket, or increase the conveyor Speed.</t>
+  </si>
+  <si>
+    <t>Remove the obstruction, and ensure that the lower strand is not striking a foreign object.</t>
+  </si>
+  <si>
+    <t>Clean and lubricate the chain correctly.</t>
+  </si>
+  <si>
+    <t>Replace with sprockets having the correct number of teeth.</t>
+  </si>
+  <si>
+    <t>Correct eccentricity ofhub hole.</t>
+  </si>
+  <si>
+    <t>Broken sprocket teeth</t>
+  </si>
+  <si>
+    <t>Cotter pins coming out</t>
+  </si>
+  <si>
+    <t>Obstruction striking the cotter pins</t>
+  </si>
+  <si>
+    <t>Excessive shock loads, especially with small, cast-iron sprockets</t>
+  </si>
+  <si>
+    <t>Obstructions striking the cotter pins</t>
+  </si>
+  <si>
+    <t>Cotter pins not installed properly, not spread apart and drawn back snugly against the side plates.</t>
+  </si>
+  <si>
+    <t>Check the chain and sprocket clearances; Remove any foreign materials.</t>
+  </si>
+  <si>
+    <t>Reduce excessive shock loads, or change to steel Sprockets.</t>
+  </si>
+  <si>
+    <t>Eliminate the obstruction; Tap the ends back until the cotter pin fits snugly against the side plates, or use a riveted chain.</t>
+  </si>
+  <si>
+    <t>Correct the faulty installation.</t>
+  </si>
+  <si>
+    <t>Damaged conveyed articles</t>
+  </si>
+  <si>
+    <t>Bent or damaged flights, attachments, or links</t>
+  </si>
+  <si>
+    <t>Obstruction in throughways or casings</t>
+  </si>
+  <si>
+    <t>Improper timing</t>
+  </si>
+  <si>
+    <t>Repair or replace the damaged parts.</t>
+  </si>
+  <si>
+    <t>Remove the obstruction.</t>
+  </si>
+  <si>
+    <t>Check timing sequence, chain elongation, and chain selection.</t>
+  </si>
+  <si>
+    <t>gear boxes</t>
+  </si>
+  <si>
+    <t>Noisy operation of the unit</t>
+  </si>
+  <si>
+    <t>Misalignment</t>
+  </si>
+  <si>
+    <t>Faulty lubrication</t>
+  </si>
+  <si>
+    <t>Excessive tension on the belts or the chain</t>
+  </si>
+  <si>
+    <t>Worn parts</t>
+  </si>
+  <si>
+    <t>Overloading</t>
+  </si>
+  <si>
+    <t>Reduce the load.</t>
+  </si>
+  <si>
+    <t>Adjust or replace the worn parts.</t>
+  </si>
+  <si>
+    <t>Check the alignment of the unit; Check the condition of the coupling; If misalignment is the problem, have the maintenance group perform an alignment of the shafts.</t>
+  </si>
+  <si>
+    <t>Check oil level; Add lubricant if needed; Determine if lubricant is correct grade; If the lubricant is not the correct grade, replace with the correct lubricant.</t>
+  </si>
+  <si>
+    <t>Check the tension and the alignment of the drive auxiliaries, and relieve the tension if required</t>
+  </si>
+  <si>
+    <t>Excessive operating temperature</t>
+  </si>
+  <si>
+    <t>Incorrect lubricant</t>
+  </si>
+  <si>
+    <t>Incorrect amount of lubricant</t>
+  </si>
+  <si>
+    <t>Obstructed air flow</t>
+  </si>
+  <si>
+    <t>Check the lubricant against the specification instructions; Replace with the correct lubricant.</t>
+  </si>
+  <si>
+    <t>Check the level in the sight glass, and fill to the correct level; Ensure that the air breather is clean and functioning properly.</t>
+  </si>
+  <si>
+    <t>Check the air supply for proper fan circulation; Remove any obstructions; Avoid any high surrounding ambient temperatures; If the ambient temperature is high because of a local heat source, place some form of barrier between the heat source and the machine.</t>
+  </si>
+  <si>
+    <t>Loosened mounting bolts</t>
+  </si>
+  <si>
+    <t>Too much oil in the unit</t>
+  </si>
+  <si>
+    <t>Clogged air breather</t>
+  </si>
+  <si>
+    <t>Loose bolts and nuts in jointed areas</t>
+  </si>
+  <si>
+    <t>Vibration from fluctuating loads or misalignment</t>
+  </si>
+  <si>
+    <t>Recheck the oil level with the unit shut down; Remove any excess oil.</t>
+  </si>
+  <si>
+    <t>Remove the breather, and clean it.</t>
+  </si>
+  <si>
+    <t>Tighten all of the joints and end cap bolts.</t>
+  </si>
+  <si>
+    <t>Check and realign the system; Tighten all of the bolts.</t>
+  </si>
+  <si>
+    <t>Lubricating Oil Systems</t>
+  </si>
+  <si>
+    <t>System pressure too low</t>
+  </si>
+  <si>
+    <t>System pressure too high</t>
+  </si>
+  <si>
+    <t>Open drain-back valve from pressure line to return line</t>
+  </si>
+  <si>
+    <t>Pump relief valve or system pressure control valve set low</t>
+  </si>
+  <si>
+    <t>Oil leak(s) in the system</t>
+  </si>
+  <si>
+    <t>System pressure control valve set too high or not functioning properly</t>
+  </si>
+  <si>
+    <t>Plugged flow nozzle(s)</t>
+  </si>
+  <si>
+    <t>Close the pump relief valves.</t>
+  </si>
+  <si>
+    <t>Check pump relief valves and the pressure control valve for normal Operation; Adjust as needed.</t>
+  </si>
+  <si>
+    <t>Check for an oil leak; Repair as necessary.</t>
+  </si>
+  <si>
+    <t>Check the system control valve, and adjust as needed.</t>
+  </si>
+  <si>
+    <t>Check the flow controls for proper settings and positive indication of flow; Adjust the setting as necessary.</t>
+  </si>
+  <si>
+    <t>System pressure constantly fluctuating</t>
+  </si>
+  <si>
+    <t>System pressure control valve not functioning properly</t>
+  </si>
+  <si>
+    <t>Adjust the system pressure control valve to maintain a constant system pressure.</t>
+  </si>
+  <si>
+    <t>Very erratic pressures and sight flows, indicating a very uneven and burpy flow</t>
+  </si>
+  <si>
+    <t>Sounding of alarm</t>
+  </si>
+  <si>
+    <t>Air being drawn into the system and pumped with the oil</t>
+  </si>
+  <si>
+    <t>Dirty filter</t>
+  </si>
+  <si>
+    <t>high differential pressure across the filter</t>
+  </si>
+  <si>
+    <t>Check the oil level in the reservoir and the free- floating operation of the floating suction; Verify there are no obstructions causing flowing suction to stick; Remove any debris from operation area; Check the suction line and the strainer to the pump for a possible air leak; Check the pressure tanks; If the tank is empty of oil, air may be leaking into the system from the air connection;  Add oil as necessary.</t>
+  </si>
+  <si>
+    <t>Purge any air from the filter casing before changing over to the standby filter to put it into service.</t>
+  </si>
+  <si>
+    <t>Standby pump and alarm cycling on and off</t>
+  </si>
+  <si>
+    <t>Operating pump not running</t>
+  </si>
+  <si>
+    <t>Mercoid switches incorrectly set</t>
+  </si>
+  <si>
+    <t>Increased demand for oil from the system due to an oil leak</t>
+  </si>
+  <si>
+    <t>Oil temperature too high</t>
+  </si>
+  <si>
+    <t>Change the pump selector switch to reverse pumps; If the system now runs normally, investigate the pump taken out of service for a problem, such as a broken shaft.</t>
+  </si>
+  <si>
+    <t>Set the standby Mercoid switch approximately 5 and 15 psi below the desired system pressure.</t>
+  </si>
+  <si>
+    <t>Look for oil leaks or some drastic change causing increased oil flow.</t>
+  </si>
+  <si>
+    <t>Check that oil temperature on discharge side of cooler is within 10 °F of operational temperature; If it is not, make adjustments accordingly.</t>
+  </si>
+  <si>
+    <t>Pump running noisily</t>
+  </si>
+  <si>
+    <t>Low fluid level</t>
+  </si>
+  <si>
+    <t>Variable-volume or pressure-compensated pump adjusted for too much flow</t>
+  </si>
+  <si>
+    <t>Intake leaking</t>
+  </si>
+  <si>
+    <t>Pump speed too high</t>
+  </si>
+  <si>
+    <t>Motor and pump not aligned</t>
+  </si>
+  <si>
+    <t>Restricted intake</t>
+  </si>
+  <si>
+    <t>Worn pump</t>
+  </si>
+  <si>
+    <t>Adjust the fluid supply to the pump.</t>
+  </si>
+  <si>
+    <t>Adjust the pressure-relief valve to lower the pressure.</t>
+  </si>
+  <si>
+    <t>Adjust the pump.</t>
+  </si>
+  <si>
+    <t>Locate and correct the leak</t>
+  </si>
+  <si>
+    <t>Decrease the pump speed.</t>
+  </si>
+  <si>
+    <t>Have maintenance align the motor and pump.</t>
+  </si>
+  <si>
+    <t>Find obstruction; clear intake; clean suction filters.</t>
+  </si>
+  <si>
+    <t>Repair or replace the pump.</t>
+  </si>
+  <si>
+    <t>Pump running noisily (continued)</t>
+  </si>
+  <si>
+    <t>Recirculation of fluid at the impeller vane exit area</t>
+  </si>
+  <si>
+    <t>Cavitation caused by lack of net positive suction head (NPSH) or turbulence from sharp pipe bends irmnediately upstream of the pump suction.</t>
+  </si>
+  <si>
+    <t>suction pressure lower than the corresponding saturation temperature</t>
+  </si>
+  <si>
+    <t>Avoid discharge restrictions. Increase the clearance at exit tips of vanes; /Never/ install higher horsepower driver without redesigning discharge and suction piping.</t>
+  </si>
+  <si>
+    <t>V-Belt Drives</t>
+  </si>
+  <si>
+    <t>Belt slipping</t>
+  </si>
+  <si>
+    <t>Not enough tension</t>
+  </si>
+  <si>
+    <t>Drive overloaded</t>
+  </si>
+  <si>
+    <t>Contaminants on belts or sheaves</t>
+  </si>
+  <si>
+    <t>Heavy starting load</t>
+  </si>
+  <si>
+    <t>Not enough arc of contact</t>
+  </si>
+  <si>
+    <t>Increase the tension. The deflection of the belt at midspan should be 1/64" for each inch of span between the centerlines of the driven and driving sheaves.</t>
+  </si>
+  <si>
+    <t>Increase the belt size.</t>
+  </si>
+  <si>
+    <t>Clean or change the belts or sheaves.</t>
+  </si>
+  <si>
+    <t>Increase the tension.</t>
+  </si>
+  <si>
+    <t>Lengthen the center distance, or use an idler.</t>
+  </si>
+  <si>
+    <t>Belt turned over in sheave</t>
+  </si>
+  <si>
+    <t>Broken cords from prying belts on and off sheaves</t>
+  </si>
+  <si>
+    <t>Reduce the drive centers when you are installing the belts; Adjust the motor position to lessen the tension on the belts; Install new belts, and retention them.</t>
+  </si>
+  <si>
+    <t>Repeated belt breakage</t>
+  </si>
+  <si>
+    <t>Shock loads</t>
+  </si>
+  <si>
+    <t>Broken cords from running or prying belts on and off sheaves</t>
+  </si>
+  <si>
+    <t>Foreign objects falling into the sheaves</t>
+  </si>
+  <si>
+    <t>Test the shaft runout for eccentricity; Have maintenance make repairs; Increase the tension or drive capacity.</t>
+  </si>
+  <si>
+    <t>Provide protective guards.</t>
+  </si>
+  <si>
+    <t>Rapid wear of the belt</t>
+  </si>
+  <si>
+    <t>Worn sheave grooves</t>
+  </si>
+  <si>
+    <t>Sheave diameter too small</t>
+  </si>
+  <si>
+    <t>Belts rubbing</t>
+  </si>
+  <si>
+    <t>Contaminated environment</t>
+  </si>
+  <si>
+    <t>Replace the sheaves.</t>
+  </si>
+  <si>
+    <t>Increase the sheave diameter.</t>
+  </si>
+  <si>
+    <t>Align the drive.</t>
+  </si>
+  <si>
+    <t>Increase the drive capacity.</t>
+  </si>
+  <si>
+    <t>Provide the correct running clearance.</t>
+  </si>
+  <si>
+    <t>Clean and protect the belts.</t>
+  </si>
+  <si>
+    <t>Belt cracked and hardened, causing slippage</t>
+  </si>
+  <si>
+    <t>Belt whipping</t>
+  </si>
+  <si>
+    <t>Hot bearings</t>
+  </si>
+  <si>
+    <t>Excessive heat</t>
+  </si>
+  <si>
+    <t>Drive centers too long</t>
+  </si>
+  <si>
+    <t>Tensioner idler sheave out of adjustment</t>
+  </si>
+  <si>
+    <t>Inadequate bearing lubrication</t>
+  </si>
+  <si>
+    <t>Too much bearing lubricant</t>
+  </si>
+  <si>
+    <t>Track down and eliminate the heat source; Provide ventilation.</t>
+  </si>
+  <si>
+    <t>Reduce the drive centers, or provide an idler.</t>
+  </si>
+  <si>
+    <t>lubricate the bearing.</t>
+  </si>
+  <si>
+    <t>Open the vent/drain plug, and purge the lubricant cavity with fresh lubricant; Leave the vent open for approximately 30 minutes, and then close it</t>
+  </si>
+  <si>
+    <t>Hot bearings (continued)</t>
+  </si>
+  <si>
+    <t>Drive belts too tight</t>
+  </si>
+  <si>
+    <t>Adjust the belt tension. The deflection of the belt at midspan should be 1/64" for each inch of span between the centerlines of the driven and driving sheaves.</t>
+  </si>
+  <si>
+    <t>One or two belts broken in a set</t>
+  </si>
+  <si>
+    <t>Not a matched set of drive belts</t>
+  </si>
+  <si>
+    <t>Belts broken internally because of poor installation practices</t>
+  </si>
+  <si>
+    <t>Replace the drive belts with matching belts.</t>
+  </si>
+  <si>
+    <t>Move the motor inwards to detension the belts, and replace with matching belts, using the proper installation procedure; /Caution/ Do not use different manufacturers' belts to make up a set; Always use belts from one manufacturer because manufacturing processes differ from one manufacturer to another.</t>
+  </si>
+  <si>
+    <t>Excessive belt stretch</t>
+  </si>
+  <si>
+    <t>Improper amount of take-up since the initial belt installation</t>
+  </si>
+  <si>
+    <t>Overload on the drive belt</t>
+  </si>
+  <si>
+    <t>Internal breaks in the belt</t>
+  </si>
+  <si>
+    <t>Replace all the belts.</t>
+  </si>
+  <si>
+    <t>Reduce the overload, or install a larger drive system.</t>
+  </si>
+  <si>
+    <t>Replace the belt; /Caution/ Never use a pry bar to install the belt in the sheave because this breaks the inner fibers on the belt and can break the sidewalls of the sheave.</t>
+  </si>
+  <si>
+    <t>Unequal belt stretch</t>
+  </si>
+  <si>
+    <t>Not a matching set of belts</t>
+  </si>
+  <si>
+    <t>Unequal coefficient of friction</t>
+  </si>
+  <si>
+    <t>Nonparallel shafts</t>
+  </si>
+  <si>
+    <t>Internal and nonvisible breaks in belts</t>
+  </si>
+  <si>
+    <t>Worn grooves in sheaves</t>
+  </si>
+  <si>
+    <t>Broken belt cords</t>
+  </si>
+  <si>
+    <t>Replace With matching belts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Check and adjust the alignment of the sheaves, and correct the tension.</t>
+  </si>
+  <si>
+    <t>Check and adjust the alignment of the sheaves, and correct the tension.</t>
+  </si>
+  <si>
+    <t>Replace the belts.</t>
+  </si>
+  <si>
+    <t>Replaee the sheaves.</t>
+  </si>
+  <si>
+    <t>Belt separation</t>
+  </si>
+  <si>
+    <t>Topside belt wear</t>
+  </si>
+  <si>
+    <t>Opening of the envelope seam on belt</t>
+  </si>
+  <si>
+    <t>Small sheaves</t>
+  </si>
+  <si>
+    <t>Excessive belt tension</t>
+  </si>
+  <si>
+    <t>Belt obstruction</t>
+  </si>
+  <si>
+    <t>Turned over or twisted belt</t>
+  </si>
+  <si>
+    <t>Rubber solvent or oil on the belt</t>
+  </si>
+  <si>
+    <t>Replace with properly sized sheaves.</t>
+  </si>
+  <si>
+    <t>Check and adjust the belt tension.</t>
+  </si>
+  <si>
+    <t>Adjust and inspect the belt. Replace as required.</t>
+  </si>
+  <si>
+    <t>Clean and inspect the belt. Replace the belt as required.</t>
+  </si>
+  <si>
+    <t>Abnormal envelope wear</t>
+  </si>
+  <si>
+    <t>Belt soft or swollen</t>
+  </si>
+  <si>
+    <t>Belt envelope hardening and cracking</t>
+  </si>
+  <si>
+    <t>Abrasive condition, worn sheaves, improper sheave angle, slip, exposed to chemical fumes, obstructions, or high heat</t>
+  </si>
+  <si>
+    <t>Exposure to severe heat and/or chemical fumes</t>
+  </si>
+  <si>
+    <t>Check the belt for an abrasive condition or any of the conditions mentioned as a probable cause; Replace the belts as required.</t>
+  </si>
+  <si>
+    <t>Clean and inspect the belt; Replace the belt as required.</t>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t>Fan output below SCFM</t>
+  </si>
+  <si>
+    <t>Fan Systems</t>
   </si>
 </sst>
 </file>
@@ -932,13 +1904,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -960,8 +1931,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C7C41C2F-BEC4-4089-B695-65F94CB7C66D}" name="Tabela1" displayName="Tabela1" ref="B1:F150" totalsRowShown="0">
-  <autoFilter ref="B1:F150" xr:uid="{C7C41C2F-BEC4-4089-B695-65F94CB7C66D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C7C41C2F-BEC4-4089-B695-65F94CB7C66D}" name="Tabela1" displayName="Tabela1" ref="B1:F163" totalsRowShown="0">
+  <autoFilter ref="B1:F163" xr:uid="{C7C41C2F-BEC4-4089-B695-65F94CB7C66D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3C1BB9CA-B171-4B63-B7D7-7A28668C352B}" name="type"/>
     <tableColumn id="2" xr3:uid="{E4D8F292-F951-45BC-957F-AF9E785457E8}" name="equipament"/>
@@ -1270,10 +2241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BF1FA3-F49E-46EE-B806-EC0466971FE5}">
-  <dimension ref="A1:J170"/>
+  <dimension ref="A1:J309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="H138" sqref="H138"/>
+    <sheetView tabSelected="1" topLeftCell="A297" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D283" sqref="D283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,7 +2257,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B1" t="s">
@@ -3870,7 +4841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>30</v>
       </c>
@@ -3893,7 +4864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>31</v>
       </c>
@@ -3916,7 +4887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>31</v>
       </c>
@@ -3939,7 +4910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>32</v>
       </c>
@@ -3962,7 +4933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>32</v>
       </c>
@@ -3985,7 +4956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>32</v>
       </c>
@@ -4007,9 +4978,8 @@
       <c r="G118" t="s">
         <v>7</v>
       </c>
-      <c r="H118" s="3"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>32</v>
       </c>
@@ -4032,7 +5002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>33</v>
       </c>
@@ -4055,7 +5025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>33</v>
       </c>
@@ -4078,7 +5048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>33</v>
       </c>
@@ -4101,7 +5071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>33</v>
       </c>
@@ -4124,7 +5094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>34</v>
       </c>
@@ -4147,7 +5117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>35</v>
       </c>
@@ -4170,7 +5140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>35</v>
       </c>
@@ -4193,7 +5163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>35</v>
       </c>
@@ -4216,7 +5186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>36</v>
       </c>
@@ -4364,11 +5334,14 @@
       <c r="C134" t="s">
         <v>186</v>
       </c>
+      <c r="D134" t="s">
+        <v>285</v>
+      </c>
       <c r="E134" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="F134" t="s">
-        <v>7</v>
+        <v>288</v>
       </c>
       <c r="G134" t="s">
         <v>7</v>
@@ -4384,11 +5357,14 @@
       <c r="C135" t="s">
         <v>186</v>
       </c>
+      <c r="D135" t="s">
+        <v>285</v>
+      </c>
       <c r="E135" t="s">
-        <v>7</v>
+        <v>287</v>
       </c>
       <c r="F135" t="s">
-        <v>7</v>
+        <v>289</v>
       </c>
       <c r="G135" t="s">
         <v>7</v>
@@ -4404,11 +5380,14 @@
       <c r="C136" t="s">
         <v>186</v>
       </c>
+      <c r="D136" t="s">
+        <v>290</v>
+      </c>
       <c r="E136" t="s">
-        <v>7</v>
+        <v>291</v>
       </c>
       <c r="F136" t="s">
-        <v>7</v>
+        <v>293</v>
       </c>
       <c r="G136" t="s">
         <v>7</v>
@@ -4424,11 +5403,14 @@
       <c r="C137" t="s">
         <v>186</v>
       </c>
+      <c r="D137" t="s">
+        <v>290</v>
+      </c>
       <c r="E137" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="F137" t="s">
-        <v>7</v>
+        <v>292</v>
       </c>
       <c r="G137" t="s">
         <v>7</v>
@@ -4444,11 +5426,14 @@
       <c r="C138" t="s">
         <v>186</v>
       </c>
+      <c r="D138" t="s">
+        <v>294</v>
+      </c>
       <c r="E138" t="s">
-        <v>7</v>
+        <v>295</v>
       </c>
       <c r="F138" t="s">
-        <v>7</v>
+        <v>298</v>
       </c>
       <c r="G138" t="s">
         <v>7</v>
@@ -4464,11 +5449,14 @@
       <c r="C139" t="s">
         <v>186</v>
       </c>
+      <c r="D139" t="s">
+        <v>294</v>
+      </c>
       <c r="E139" t="s">
-        <v>7</v>
+        <v>296</v>
       </c>
       <c r="F139" t="s">
-        <v>7</v>
+        <v>300</v>
       </c>
       <c r="G139" t="s">
         <v>7</v>
@@ -4484,11 +5472,14 @@
       <c r="C140" t="s">
         <v>186</v>
       </c>
+      <c r="D140" t="s">
+        <v>294</v>
+      </c>
       <c r="E140" t="s">
-        <v>7</v>
+        <v>297</v>
       </c>
       <c r="F140" t="s">
-        <v>7</v>
+        <v>299</v>
       </c>
       <c r="G140" t="s">
         <v>7</v>
@@ -4504,11 +5495,14 @@
       <c r="C141" t="s">
         <v>186</v>
       </c>
+      <c r="D141" t="s">
+        <v>301</v>
+      </c>
       <c r="E141" t="s">
-        <v>7</v>
+        <v>302</v>
       </c>
       <c r="F141" t="s">
-        <v>7</v>
+        <v>305</v>
       </c>
       <c r="G141" t="s">
         <v>7</v>
@@ -4524,11 +5518,14 @@
       <c r="C142" t="s">
         <v>186</v>
       </c>
+      <c r="D142" t="s">
+        <v>301</v>
+      </c>
       <c r="E142" t="s">
-        <v>7</v>
+        <v>303</v>
       </c>
       <c r="F142" t="s">
-        <v>7</v>
+        <v>306</v>
       </c>
       <c r="G142" t="s">
         <v>7</v>
@@ -4544,11 +5541,14 @@
       <c r="C143" t="s">
         <v>186</v>
       </c>
+      <c r="D143" t="s">
+        <v>301</v>
+      </c>
       <c r="E143" t="s">
-        <v>7</v>
+        <v>304</v>
       </c>
       <c r="F143" t="s">
-        <v>7</v>
+        <v>307</v>
       </c>
       <c r="G143" t="s">
         <v>7</v>
@@ -4564,11 +5564,14 @@
       <c r="C144" t="s">
         <v>186</v>
       </c>
+      <c r="D144" t="s">
+        <v>308</v>
+      </c>
       <c r="E144" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="F144" t="s">
-        <v>7</v>
+        <v>313</v>
       </c>
       <c r="G144" t="s">
         <v>7</v>
@@ -4584,11 +5587,14 @@
       <c r="C145" t="s">
         <v>186</v>
       </c>
+      <c r="D145" t="s">
+        <v>308</v>
+      </c>
       <c r="E145" t="s">
-        <v>7</v>
+        <v>310</v>
       </c>
       <c r="F145" t="s">
-        <v>7</v>
+        <v>314</v>
       </c>
       <c r="G145" t="s">
         <v>7</v>
@@ -4604,11 +5610,14 @@
       <c r="C146" t="s">
         <v>186</v>
       </c>
+      <c r="D146" t="s">
+        <v>308</v>
+      </c>
       <c r="E146" t="s">
-        <v>7</v>
+        <v>311</v>
       </c>
       <c r="F146" t="s">
-        <v>7</v>
+        <v>315</v>
       </c>
       <c r="G146" t="s">
         <v>7</v>
@@ -4624,11 +5633,14 @@
       <c r="C147" t="s">
         <v>186</v>
       </c>
+      <c r="D147" t="s">
+        <v>308</v>
+      </c>
       <c r="E147" t="s">
-        <v>7</v>
+        <v>312</v>
       </c>
       <c r="F147" t="s">
-        <v>7</v>
+        <v>315</v>
       </c>
       <c r="G147" t="s">
         <v>7</v>
@@ -4644,11 +5656,14 @@
       <c r="C148" t="s">
         <v>186</v>
       </c>
+      <c r="D148" t="s">
+        <v>316</v>
+      </c>
       <c r="E148" t="s">
-        <v>7</v>
+        <v>317</v>
       </c>
       <c r="F148" t="s">
-        <v>7</v>
+        <v>320</v>
       </c>
       <c r="G148" t="s">
         <v>7</v>
@@ -4664,11 +5679,14 @@
       <c r="C149" t="s">
         <v>186</v>
       </c>
+      <c r="D149" t="s">
+        <v>316</v>
+      </c>
       <c r="E149" t="s">
-        <v>7</v>
+        <v>318</v>
       </c>
       <c r="F149" t="s">
-        <v>7</v>
+        <v>321</v>
       </c>
       <c r="G149" t="s">
         <v>7</v>
@@ -4684,209 +5702,3505 @@
       <c r="C150" t="s">
         <v>186</v>
       </c>
+      <c r="D150" t="s">
+        <v>316</v>
+      </c>
       <c r="E150" t="s">
-        <v>7</v>
+        <v>319</v>
       </c>
       <c r="F150" t="s">
-        <v>7</v>
+        <v>322</v>
       </c>
       <c r="G150" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>47</v>
+      </c>
+      <c r="B151" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" t="s">
+        <v>324</v>
+      </c>
+      <c r="D151" t="s">
+        <v>323</v>
+      </c>
       <c r="E151" t="s">
-        <v>7</v>
+        <v>325</v>
       </c>
       <c r="F151" t="s">
-        <v>7</v>
+        <v>331</v>
       </c>
       <c r="G151" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>47</v>
+      </c>
+      <c r="B152" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" t="s">
+        <v>324</v>
+      </c>
+      <c r="D152" t="s">
+        <v>323</v>
+      </c>
       <c r="E152" t="s">
-        <v>7</v>
+        <v>326</v>
       </c>
       <c r="F152" t="s">
-        <v>7</v>
+        <v>332</v>
       </c>
       <c r="G152" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>47</v>
+      </c>
+      <c r="B153" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" t="s">
+        <v>324</v>
+      </c>
+      <c r="D153" t="s">
+        <v>323</v>
+      </c>
       <c r="E153" t="s">
-        <v>7</v>
+        <v>327</v>
       </c>
       <c r="F153" t="s">
-        <v>7</v>
+        <v>333</v>
       </c>
       <c r="G153" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>47</v>
+      </c>
+      <c r="B154" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" t="s">
+        <v>324</v>
+      </c>
+      <c r="D154" t="s">
+        <v>323</v>
+      </c>
       <c r="E154" t="s">
-        <v>7</v>
+        <v>328</v>
       </c>
       <c r="F154" t="s">
-        <v>7</v>
+        <v>334</v>
       </c>
       <c r="G154" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>47</v>
+      </c>
+      <c r="B155" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155" t="s">
+        <v>324</v>
+      </c>
+      <c r="D155" t="s">
+        <v>323</v>
+      </c>
       <c r="E155" t="s">
-        <v>7</v>
+        <v>329</v>
       </c>
       <c r="F155" t="s">
-        <v>7</v>
+        <v>335</v>
       </c>
       <c r="G155" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>47</v>
+      </c>
+      <c r="B156" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" t="s">
+        <v>324</v>
+      </c>
+      <c r="D156" t="s">
+        <v>323</v>
+      </c>
       <c r="E156" t="s">
-        <v>7</v>
+        <v>330</v>
       </c>
       <c r="F156" t="s">
-        <v>7</v>
+        <v>336</v>
       </c>
       <c r="G156" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>48</v>
+      </c>
+      <c r="B157" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" t="s">
+        <v>324</v>
+      </c>
+      <c r="D157" t="s">
+        <v>337</v>
+      </c>
       <c r="E157" t="s">
-        <v>7</v>
+        <v>338</v>
       </c>
       <c r="F157" t="s">
-        <v>7</v>
+        <v>344</v>
       </c>
       <c r="G157" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>48</v>
+      </c>
+      <c r="B158" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158" t="s">
+        <v>324</v>
+      </c>
+      <c r="D158" t="s">
+        <v>337</v>
+      </c>
       <c r="E158" t="s">
-        <v>7</v>
+        <v>339</v>
       </c>
       <c r="F158" t="s">
-        <v>7</v>
+        <v>345</v>
       </c>
       <c r="G158" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>48</v>
+      </c>
+      <c r="B159" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159" t="s">
+        <v>324</v>
+      </c>
+      <c r="D159" t="s">
+        <v>337</v>
+      </c>
       <c r="E159" t="s">
-        <v>7</v>
+        <v>340</v>
       </c>
       <c r="F159" t="s">
-        <v>7</v>
+        <v>346</v>
       </c>
       <c r="G159" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>48</v>
+      </c>
+      <c r="B160" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160" t="s">
+        <v>324</v>
+      </c>
+      <c r="D160" t="s">
+        <v>337</v>
+      </c>
       <c r="E160" t="s">
-        <v>7</v>
+        <v>341</v>
       </c>
       <c r="F160" t="s">
-        <v>7</v>
+        <v>347</v>
       </c>
       <c r="G160" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>48</v>
+      </c>
+      <c r="B161" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161" t="s">
+        <v>324</v>
+      </c>
+      <c r="D161" t="s">
+        <v>337</v>
+      </c>
       <c r="E161" t="s">
-        <v>7</v>
+        <v>342</v>
       </c>
       <c r="F161" t="s">
-        <v>7</v>
+        <v>348</v>
       </c>
       <c r="G161" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>48</v>
+      </c>
+      <c r="B162" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162" t="s">
+        <v>324</v>
+      </c>
+      <c r="D162" t="s">
+        <v>337</v>
+      </c>
       <c r="E162" t="s">
-        <v>7</v>
+        <v>343</v>
       </c>
       <c r="F162" t="s">
-        <v>7</v>
+        <v>349</v>
       </c>
       <c r="G162" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>49</v>
+      </c>
+      <c r="B163" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" t="s">
+        <v>324</v>
+      </c>
+      <c r="D163" t="s">
+        <v>350</v>
+      </c>
       <c r="E163" t="s">
-        <v>7</v>
+        <v>351</v>
       </c>
       <c r="F163" t="s">
-        <v>7</v>
+        <v>354</v>
       </c>
       <c r="G163" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>49</v>
+      </c>
+      <c r="B164" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" t="s">
+        <v>324</v>
+      </c>
+      <c r="D164" t="s">
+        <v>350</v>
+      </c>
       <c r="E164" t="s">
-        <v>7</v>
+        <v>326</v>
       </c>
       <c r="F164" t="s">
-        <v>7</v>
+        <v>355</v>
       </c>
       <c r="G164" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>49</v>
+      </c>
+      <c r="B165" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165" t="s">
+        <v>324</v>
+      </c>
+      <c r="D165" t="s">
+        <v>350</v>
+      </c>
       <c r="E165" t="s">
-        <v>7</v>
+        <v>352</v>
       </c>
       <c r="F165" t="s">
-        <v>7</v>
+        <v>356</v>
       </c>
       <c r="G165" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>49</v>
+      </c>
+      <c r="B166" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166" t="s">
+        <v>324</v>
+      </c>
+      <c r="D166" t="s">
+        <v>350</v>
+      </c>
       <c r="E166" t="s">
-        <v>7</v>
+        <v>353</v>
       </c>
       <c r="F166" t="s">
-        <v>7</v>
+        <v>357</v>
       </c>
       <c r="G166" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>50</v>
+      </c>
+      <c r="B167" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167" t="s">
+        <v>324</v>
+      </c>
+      <c r="D167" t="s">
+        <v>358</v>
+      </c>
+      <c r="E167" t="s">
+        <v>359</v>
+      </c>
+      <c r="F167" t="s">
+        <v>362</v>
+      </c>
       <c r="G167" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>50</v>
+      </c>
+      <c r="B168" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168" t="s">
+        <v>324</v>
+      </c>
+      <c r="D168" t="s">
+        <v>358</v>
+      </c>
+      <c r="E168" t="s">
+        <v>360</v>
+      </c>
+      <c r="F168" t="s">
+        <v>363</v>
+      </c>
       <c r="G168" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>50</v>
+      </c>
+      <c r="B169" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" t="s">
+        <v>324</v>
+      </c>
+      <c r="D169" t="s">
+        <v>358</v>
+      </c>
+      <c r="E169" t="s">
+        <v>361</v>
+      </c>
+      <c r="F169" t="s">
+        <v>364</v>
+      </c>
       <c r="G169" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>51</v>
+      </c>
+      <c r="B170" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170" t="s">
+        <v>324</v>
+      </c>
+      <c r="D170" t="s">
+        <v>365</v>
+      </c>
+      <c r="E170" t="s">
+        <v>339</v>
+      </c>
+      <c r="F170" t="s">
+        <v>369</v>
+      </c>
       <c r="G170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>51</v>
+      </c>
+      <c r="B171" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171" t="s">
+        <v>324</v>
+      </c>
+      <c r="D171" t="s">
+        <v>365</v>
+      </c>
+      <c r="E171" t="s">
+        <v>366</v>
+      </c>
+      <c r="F171" t="s">
+        <v>370</v>
+      </c>
+      <c r="G171" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>51</v>
+      </c>
+      <c r="B172" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" t="s">
+        <v>324</v>
+      </c>
+      <c r="D172" t="s">
+        <v>365</v>
+      </c>
+      <c r="E172" t="s">
+        <v>343</v>
+      </c>
+      <c r="F172" t="s">
+        <v>371</v>
+      </c>
+      <c r="G172" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>51</v>
+      </c>
+      <c r="B173" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" t="s">
+        <v>324</v>
+      </c>
+      <c r="D173" t="s">
+        <v>365</v>
+      </c>
+      <c r="E173" t="s">
+        <v>367</v>
+      </c>
+      <c r="F173" t="s">
+        <v>372</v>
+      </c>
+      <c r="G173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>51</v>
+      </c>
+      <c r="B174" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" t="s">
+        <v>324</v>
+      </c>
+      <c r="D174" t="s">
+        <v>365</v>
+      </c>
+      <c r="E174" t="s">
+        <v>368</v>
+      </c>
+      <c r="F174" t="s">
+        <v>373</v>
+      </c>
+      <c r="G174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>52</v>
+      </c>
+      <c r="B175" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175" t="s">
+        <v>324</v>
+      </c>
+      <c r="D175" t="s">
+        <v>366</v>
+      </c>
+      <c r="E175" t="s">
+        <v>374</v>
+      </c>
+      <c r="F175" t="s">
+        <v>381</v>
+      </c>
+      <c r="G175" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>52</v>
+      </c>
+      <c r="B176" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" t="s">
+        <v>324</v>
+      </c>
+      <c r="D176" t="s">
+        <v>366</v>
+      </c>
+      <c r="E176" t="s">
+        <v>375</v>
+      </c>
+      <c r="F176" t="s">
+        <v>382</v>
+      </c>
+      <c r="G176" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>52</v>
+      </c>
+      <c r="B177" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" t="s">
+        <v>324</v>
+      </c>
+      <c r="D177" t="s">
+        <v>366</v>
+      </c>
+      <c r="E177" t="s">
+        <v>376</v>
+      </c>
+      <c r="F177" t="s">
+        <v>383</v>
+      </c>
+      <c r="G177" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>52</v>
+      </c>
+      <c r="B178" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" t="s">
+        <v>324</v>
+      </c>
+      <c r="D178" t="s">
+        <v>366</v>
+      </c>
+      <c r="E178" t="s">
+        <v>377</v>
+      </c>
+      <c r="F178" t="s">
+        <v>384</v>
+      </c>
+      <c r="G178" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>52</v>
+      </c>
+      <c r="B179" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179" t="s">
+        <v>324</v>
+      </c>
+      <c r="D179" t="s">
+        <v>366</v>
+      </c>
+      <c r="E179" t="s">
+        <v>378</v>
+      </c>
+      <c r="F179" t="s">
+        <v>385</v>
+      </c>
+      <c r="G179" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>52</v>
+      </c>
+      <c r="B180" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180" t="s">
+        <v>324</v>
+      </c>
+      <c r="D180" t="s">
+        <v>366</v>
+      </c>
+      <c r="E180" t="s">
+        <v>379</v>
+      </c>
+      <c r="F180" t="s">
+        <v>386</v>
+      </c>
+      <c r="G180" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>52</v>
+      </c>
+      <c r="B181" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181" t="s">
+        <v>324</v>
+      </c>
+      <c r="D181" t="s">
+        <v>366</v>
+      </c>
+      <c r="E181" t="s">
+        <v>380</v>
+      </c>
+      <c r="F181" t="s">
+        <v>387</v>
+      </c>
+      <c r="G181" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>53</v>
+      </c>
+      <c r="B182" t="s">
+        <v>4</v>
+      </c>
+      <c r="C182" t="s">
+        <v>324</v>
+      </c>
+      <c r="D182" t="s">
+        <v>388</v>
+      </c>
+      <c r="E182" t="s">
+        <v>390</v>
+      </c>
+      <c r="F182" t="s">
+        <v>393</v>
+      </c>
+      <c r="G182" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>53</v>
+      </c>
+      <c r="B183" t="s">
+        <v>4</v>
+      </c>
+      <c r="C183" t="s">
+        <v>324</v>
+      </c>
+      <c r="D183" t="s">
+        <v>389</v>
+      </c>
+      <c r="E183" t="s">
+        <v>391</v>
+      </c>
+      <c r="F183" t="s">
+        <v>397</v>
+      </c>
+      <c r="G183" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>53</v>
+      </c>
+      <c r="B184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C184" t="s">
+        <v>324</v>
+      </c>
+      <c r="D184" t="s">
+        <v>389</v>
+      </c>
+      <c r="E184" t="s">
+        <v>392</v>
+      </c>
+      <c r="F184" t="s">
+        <v>396</v>
+      </c>
+      <c r="G184" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>53</v>
+      </c>
+      <c r="B185" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185" t="s">
+        <v>324</v>
+      </c>
+      <c r="D185" t="s">
+        <v>389</v>
+      </c>
+      <c r="E185" t="s">
+        <v>394</v>
+      </c>
+      <c r="F185" t="s">
+        <v>395</v>
+      </c>
+      <c r="G185" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>54</v>
+      </c>
+      <c r="B186" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186" t="s">
+        <v>324</v>
+      </c>
+      <c r="D186" t="s">
+        <v>398</v>
+      </c>
+      <c r="E186" t="s">
+        <v>7</v>
+      </c>
+      <c r="F186" t="s">
+        <v>401</v>
+      </c>
+      <c r="G186" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>54</v>
+      </c>
+      <c r="B187" t="s">
+        <v>4</v>
+      </c>
+      <c r="C187" t="s">
+        <v>324</v>
+      </c>
+      <c r="D187" t="s">
+        <v>398</v>
+      </c>
+      <c r="E187" t="s">
+        <v>376</v>
+      </c>
+      <c r="F187" t="s">
+        <v>402</v>
+      </c>
+      <c r="G187" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>54</v>
+      </c>
+      <c r="B188" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188" t="s">
+        <v>324</v>
+      </c>
+      <c r="D188" t="s">
+        <v>398</v>
+      </c>
+      <c r="E188" t="s">
+        <v>399</v>
+      </c>
+      <c r="F188" t="s">
+        <v>403</v>
+      </c>
+      <c r="G188" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>54</v>
+      </c>
+      <c r="B189" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189" t="s">
+        <v>324</v>
+      </c>
+      <c r="D189" t="s">
+        <v>398</v>
+      </c>
+      <c r="E189" t="s">
+        <v>400</v>
+      </c>
+      <c r="F189" t="s">
+        <v>404</v>
+      </c>
+      <c r="G189" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>55</v>
+      </c>
+      <c r="B190" t="s">
+        <v>4</v>
+      </c>
+      <c r="C190" t="s">
+        <v>324</v>
+      </c>
+      <c r="D190" t="s">
+        <v>405</v>
+      </c>
+      <c r="E190" t="s">
+        <v>406</v>
+      </c>
+      <c r="F190" t="s">
+        <v>412</v>
+      </c>
+      <c r="G190" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>55</v>
+      </c>
+      <c r="B191" t="s">
+        <v>4</v>
+      </c>
+      <c r="C191" t="s">
+        <v>324</v>
+      </c>
+      <c r="D191" t="s">
+        <v>405</v>
+      </c>
+      <c r="E191" t="s">
+        <v>407</v>
+      </c>
+      <c r="F191" t="s">
+        <v>413</v>
+      </c>
+      <c r="G191" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>55</v>
+      </c>
+      <c r="B192" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192" t="s">
+        <v>324</v>
+      </c>
+      <c r="D192" t="s">
+        <v>405</v>
+      </c>
+      <c r="E192" t="s">
+        <v>408</v>
+      </c>
+      <c r="F192" t="s">
+        <v>414</v>
+      </c>
+      <c r="G192" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>55</v>
+      </c>
+      <c r="B193" t="s">
+        <v>4</v>
+      </c>
+      <c r="C193" t="s">
+        <v>324</v>
+      </c>
+      <c r="D193" t="s">
+        <v>405</v>
+      </c>
+      <c r="E193" t="s">
+        <v>409</v>
+      </c>
+      <c r="F193" t="s">
+        <v>415</v>
+      </c>
+      <c r="G193" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>55</v>
+      </c>
+      <c r="B194" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194" t="s">
+        <v>324</v>
+      </c>
+      <c r="D194" t="s">
+        <v>405</v>
+      </c>
+      <c r="E194" t="s">
+        <v>410</v>
+      </c>
+      <c r="F194" t="s">
+        <v>416</v>
+      </c>
+      <c r="G194" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>55</v>
+      </c>
+      <c r="B195" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195" t="s">
+        <v>324</v>
+      </c>
+      <c r="D195" t="s">
+        <v>405</v>
+      </c>
+      <c r="E195" t="s">
+        <v>411</v>
+      </c>
+      <c r="F195" t="s">
+        <v>417</v>
+      </c>
+      <c r="G195" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>56</v>
+      </c>
+      <c r="B196" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" t="s">
+        <v>324</v>
+      </c>
+      <c r="D196" t="s">
+        <v>418</v>
+      </c>
+      <c r="E196" t="s">
+        <v>420</v>
+      </c>
+      <c r="F196" t="s">
+        <v>424</v>
+      </c>
+      <c r="G196" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>56</v>
+      </c>
+      <c r="B197" t="s">
+        <v>4</v>
+      </c>
+      <c r="C197" t="s">
+        <v>324</v>
+      </c>
+      <c r="D197" t="s">
+        <v>418</v>
+      </c>
+      <c r="E197" t="s">
+        <v>421</v>
+      </c>
+      <c r="F197" t="s">
+        <v>425</v>
+      </c>
+      <c r="G197" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>56</v>
+      </c>
+      <c r="B198" t="s">
+        <v>4</v>
+      </c>
+      <c r="C198" t="s">
+        <v>324</v>
+      </c>
+      <c r="D198" t="s">
+        <v>419</v>
+      </c>
+      <c r="E198" t="s">
+        <v>422</v>
+      </c>
+      <c r="F198" t="s">
+        <v>426</v>
+      </c>
+      <c r="G198" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>56</v>
+      </c>
+      <c r="B199" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199" t="s">
+        <v>324</v>
+      </c>
+      <c r="D199" t="s">
+        <v>419</v>
+      </c>
+      <c r="E199" t="s">
+        <v>423</v>
+      </c>
+      <c r="F199" t="s">
+        <v>427</v>
+      </c>
+      <c r="G199" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>57</v>
+      </c>
+      <c r="B200" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200" t="s">
+        <v>324</v>
+      </c>
+      <c r="D200" t="s">
+        <v>428</v>
+      </c>
+      <c r="E200" t="s">
+        <v>429</v>
+      </c>
+      <c r="F200" t="s">
+        <v>432</v>
+      </c>
+      <c r="G200" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>57</v>
+      </c>
+      <c r="B201" t="s">
+        <v>4</v>
+      </c>
+      <c r="C201" t="s">
+        <v>324</v>
+      </c>
+      <c r="D201" t="s">
+        <v>428</v>
+      </c>
+      <c r="E201" t="s">
+        <v>430</v>
+      </c>
+      <c r="F201" t="s">
+        <v>433</v>
+      </c>
+      <c r="G201" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>57</v>
+      </c>
+      <c r="B202" t="s">
+        <v>4</v>
+      </c>
+      <c r="C202" t="s">
+        <v>324</v>
+      </c>
+      <c r="D202" t="s">
+        <v>428</v>
+      </c>
+      <c r="E202" t="s">
+        <v>431</v>
+      </c>
+      <c r="F202" t="s">
+        <v>434</v>
+      </c>
+      <c r="G202" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>58</v>
+      </c>
+      <c r="B203" t="s">
+        <v>4</v>
+      </c>
+      <c r="C203" t="s">
+        <v>435</v>
+      </c>
+      <c r="D203" t="s">
+        <v>436</v>
+      </c>
+      <c r="E203" t="s">
+        <v>437</v>
+      </c>
+      <c r="F203" t="s">
+        <v>444</v>
+      </c>
+      <c r="G203" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>58</v>
+      </c>
+      <c r="B204" t="s">
+        <v>4</v>
+      </c>
+      <c r="C204" t="s">
+        <v>435</v>
+      </c>
+      <c r="D204" t="s">
+        <v>436</v>
+      </c>
+      <c r="E204" t="s">
+        <v>438</v>
+      </c>
+      <c r="F204" t="s">
+        <v>445</v>
+      </c>
+      <c r="G204" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>58</v>
+      </c>
+      <c r="B205" t="s">
+        <v>4</v>
+      </c>
+      <c r="C205" t="s">
+        <v>435</v>
+      </c>
+      <c r="D205" t="s">
+        <v>436</v>
+      </c>
+      <c r="E205" t="s">
+        <v>439</v>
+      </c>
+      <c r="F205" t="s">
+        <v>446</v>
+      </c>
+      <c r="G205" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>58</v>
+      </c>
+      <c r="B206" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206" t="s">
+        <v>435</v>
+      </c>
+      <c r="D206" t="s">
+        <v>436</v>
+      </c>
+      <c r="E206" t="s">
+        <v>440</v>
+      </c>
+      <c r="F206" t="s">
+        <v>443</v>
+      </c>
+      <c r="G206" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>58</v>
+      </c>
+      <c r="B207" t="s">
+        <v>4</v>
+      </c>
+      <c r="C207" t="s">
+        <v>435</v>
+      </c>
+      <c r="D207" t="s">
+        <v>436</v>
+      </c>
+      <c r="E207" t="s">
+        <v>441</v>
+      </c>
+      <c r="F207" t="s">
+        <v>442</v>
+      </c>
+      <c r="G207" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>59</v>
+      </c>
+      <c r="B208" t="s">
+        <v>4</v>
+      </c>
+      <c r="C208" t="s">
+        <v>435</v>
+      </c>
+      <c r="D208" t="s">
+        <v>447</v>
+      </c>
+      <c r="E208" t="s">
+        <v>448</v>
+      </c>
+      <c r="F208" t="s">
+        <v>451</v>
+      </c>
+      <c r="G208" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>59</v>
+      </c>
+      <c r="B209" t="s">
+        <v>4</v>
+      </c>
+      <c r="C209" t="s">
+        <v>435</v>
+      </c>
+      <c r="D209" t="s">
+        <v>447</v>
+      </c>
+      <c r="E209" t="s">
+        <v>449</v>
+      </c>
+      <c r="F209" t="s">
+        <v>452</v>
+      </c>
+      <c r="G209" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>59</v>
+      </c>
+      <c r="B210" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210" t="s">
+        <v>435</v>
+      </c>
+      <c r="D210" t="s">
+        <v>447</v>
+      </c>
+      <c r="E210" t="s">
+        <v>441</v>
+      </c>
+      <c r="F210" t="s">
+        <v>442</v>
+      </c>
+      <c r="G210" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>59</v>
+      </c>
+      <c r="B211" t="s">
+        <v>4</v>
+      </c>
+      <c r="C211" t="s">
+        <v>435</v>
+      </c>
+      <c r="D211" t="s">
+        <v>447</v>
+      </c>
+      <c r="E211" t="s">
+        <v>450</v>
+      </c>
+      <c r="F211" t="s">
+        <v>453</v>
+      </c>
+      <c r="G211" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>60</v>
+      </c>
+      <c r="B212" t="s">
+        <v>4</v>
+      </c>
+      <c r="C212" t="s">
+        <v>435</v>
+      </c>
+      <c r="D212" t="s">
+        <v>178</v>
+      </c>
+      <c r="E212" t="s">
+        <v>455</v>
+      </c>
+      <c r="F212" t="s">
+        <v>459</v>
+      </c>
+      <c r="G212" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>60</v>
+      </c>
+      <c r="B213" t="s">
+        <v>4</v>
+      </c>
+      <c r="C213" t="s">
+        <v>435</v>
+      </c>
+      <c r="D213" t="s">
+        <v>178</v>
+      </c>
+      <c r="E213" t="s">
+        <v>456</v>
+      </c>
+      <c r="F213" t="s">
+        <v>460</v>
+      </c>
+      <c r="G213" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>60</v>
+      </c>
+      <c r="B214" t="s">
+        <v>4</v>
+      </c>
+      <c r="C214" t="s">
+        <v>435</v>
+      </c>
+      <c r="D214" t="s">
+        <v>178</v>
+      </c>
+      <c r="E214" t="s">
+        <v>457</v>
+      </c>
+      <c r="F214" t="s">
+        <v>461</v>
+      </c>
+      <c r="G214" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>60</v>
+      </c>
+      <c r="B215" t="s">
+        <v>4</v>
+      </c>
+      <c r="C215" t="s">
+        <v>435</v>
+      </c>
+      <c r="D215" t="s">
+        <v>454</v>
+      </c>
+      <c r="E215" t="s">
+        <v>458</v>
+      </c>
+      <c r="F215" t="s">
+        <v>462</v>
+      </c>
+      <c r="G215" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>61</v>
+      </c>
+      <c r="B216" t="s">
+        <v>4</v>
+      </c>
+      <c r="C216" t="s">
+        <v>463</v>
+      </c>
+      <c r="D216" t="s">
+        <v>464</v>
+      </c>
+      <c r="E216" t="s">
+        <v>466</v>
+      </c>
+      <c r="F216" t="s">
+        <v>471</v>
+      </c>
+      <c r="G216" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>61</v>
+      </c>
+      <c r="B217" t="s">
+        <v>4</v>
+      </c>
+      <c r="C217" t="s">
+        <v>463</v>
+      </c>
+      <c r="D217" t="s">
+        <v>464</v>
+      </c>
+      <c r="E217" t="s">
+        <v>467</v>
+      </c>
+      <c r="F217" t="s">
+        <v>472</v>
+      </c>
+      <c r="G217" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>61</v>
+      </c>
+      <c r="B218" t="s">
+        <v>4</v>
+      </c>
+      <c r="C218" t="s">
+        <v>463</v>
+      </c>
+      <c r="D218" t="s">
+        <v>464</v>
+      </c>
+      <c r="E218" t="s">
+        <v>468</v>
+      </c>
+      <c r="F218" t="s">
+        <v>473</v>
+      </c>
+      <c r="G218" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>61</v>
+      </c>
+      <c r="B219" t="s">
+        <v>4</v>
+      </c>
+      <c r="C219" t="s">
+        <v>463</v>
+      </c>
+      <c r="D219" t="s">
+        <v>465</v>
+      </c>
+      <c r="E219" t="s">
+        <v>469</v>
+      </c>
+      <c r="F219" t="s">
+        <v>474</v>
+      </c>
+      <c r="G219" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>61</v>
+      </c>
+      <c r="B220" t="s">
+        <v>4</v>
+      </c>
+      <c r="C220" t="s">
+        <v>463</v>
+      </c>
+      <c r="D220" t="s">
+        <v>465</v>
+      </c>
+      <c r="E220" t="s">
+        <v>470</v>
+      </c>
+      <c r="F220" t="s">
+        <v>475</v>
+      </c>
+      <c r="G220" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>62</v>
+      </c>
+      <c r="B221" t="s">
+        <v>4</v>
+      </c>
+      <c r="C221" t="s">
+        <v>463</v>
+      </c>
+      <c r="D221" t="s">
+        <v>476</v>
+      </c>
+      <c r="E221" t="s">
+        <v>477</v>
+      </c>
+      <c r="F221" t="s">
+        <v>478</v>
+      </c>
+      <c r="G221" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>63</v>
+      </c>
+      <c r="B222" t="s">
+        <v>4</v>
+      </c>
+      <c r="C222" t="s">
+        <v>463</v>
+      </c>
+      <c r="D222" t="s">
+        <v>479</v>
+      </c>
+      <c r="E222" t="s">
+        <v>481</v>
+      </c>
+      <c r="F222" t="s">
+        <v>484</v>
+      </c>
+      <c r="G222" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>63</v>
+      </c>
+      <c r="B223" t="s">
+        <v>4</v>
+      </c>
+      <c r="C223" t="s">
+        <v>463</v>
+      </c>
+      <c r="D223" t="s">
+        <v>480</v>
+      </c>
+      <c r="E223" t="s">
+        <v>482</v>
+      </c>
+      <c r="F223" t="s">
+        <v>485</v>
+      </c>
+      <c r="G223" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>63</v>
+      </c>
+      <c r="B224" t="s">
+        <v>4</v>
+      </c>
+      <c r="C224" t="s">
+        <v>463</v>
+      </c>
+      <c r="D224" t="s">
+        <v>480</v>
+      </c>
+      <c r="E224" t="s">
+        <v>483</v>
+      </c>
+      <c r="F224" t="s">
+        <v>485</v>
+      </c>
+      <c r="G224" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>64</v>
+      </c>
+      <c r="B225" t="s">
+        <v>4</v>
+      </c>
+      <c r="C225" t="s">
+        <v>463</v>
+      </c>
+      <c r="D225" t="s">
+        <v>486</v>
+      </c>
+      <c r="E225" t="s">
+        <v>487</v>
+      </c>
+      <c r="F225" t="s">
+        <v>491</v>
+      </c>
+      <c r="G225" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>64</v>
+      </c>
+      <c r="B226" t="s">
+        <v>4</v>
+      </c>
+      <c r="C226" t="s">
+        <v>463</v>
+      </c>
+      <c r="D226" t="s">
+        <v>486</v>
+      </c>
+      <c r="E226" t="s">
+        <v>488</v>
+      </c>
+      <c r="F226" t="s">
+        <v>492</v>
+      </c>
+      <c r="G226" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>64</v>
+      </c>
+      <c r="B227" t="s">
+        <v>4</v>
+      </c>
+      <c r="C227" t="s">
+        <v>463</v>
+      </c>
+      <c r="D227" t="s">
+        <v>486</v>
+      </c>
+      <c r="E227" t="s">
+        <v>489</v>
+      </c>
+      <c r="F227" t="s">
+        <v>493</v>
+      </c>
+      <c r="G227" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>64</v>
+      </c>
+      <c r="B228" t="s">
+        <v>4</v>
+      </c>
+      <c r="C228" t="s">
+        <v>463</v>
+      </c>
+      <c r="D228" t="s">
+        <v>486</v>
+      </c>
+      <c r="E228" t="s">
+        <v>490</v>
+      </c>
+      <c r="F228" t="s">
+        <v>494</v>
+      </c>
+      <c r="G228" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>65</v>
+      </c>
+      <c r="B229" t="s">
+        <v>4</v>
+      </c>
+      <c r="C229" t="s">
+        <v>463</v>
+      </c>
+      <c r="D229" t="s">
+        <v>495</v>
+      </c>
+      <c r="E229" t="s">
+        <v>496</v>
+      </c>
+      <c r="F229" t="s">
+        <v>503</v>
+      </c>
+      <c r="G229" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>65</v>
+      </c>
+      <c r="B230" t="s">
+        <v>4</v>
+      </c>
+      <c r="C230" t="s">
+        <v>463</v>
+      </c>
+      <c r="D230" t="s">
+        <v>495</v>
+      </c>
+      <c r="E230" t="s">
+        <v>465</v>
+      </c>
+      <c r="F230" t="s">
+        <v>504</v>
+      </c>
+      <c r="G230" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>65</v>
+      </c>
+      <c r="B231" t="s">
+        <v>4</v>
+      </c>
+      <c r="C231" t="s">
+        <v>463</v>
+      </c>
+      <c r="D231" t="s">
+        <v>495</v>
+      </c>
+      <c r="E231" t="s">
+        <v>497</v>
+      </c>
+      <c r="F231" t="s">
+        <v>505</v>
+      </c>
+      <c r="G231" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>65</v>
+      </c>
+      <c r="B232" t="s">
+        <v>4</v>
+      </c>
+      <c r="C232" t="s">
+        <v>463</v>
+      </c>
+      <c r="D232" t="s">
+        <v>495</v>
+      </c>
+      <c r="E232" t="s">
+        <v>498</v>
+      </c>
+      <c r="F232" t="s">
+        <v>506</v>
+      </c>
+      <c r="G232" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>65</v>
+      </c>
+      <c r="B233" t="s">
+        <v>4</v>
+      </c>
+      <c r="C233" t="s">
+        <v>463</v>
+      </c>
+      <c r="D233" t="s">
+        <v>495</v>
+      </c>
+      <c r="E233" t="s">
+        <v>499</v>
+      </c>
+      <c r="F233" t="s">
+        <v>507</v>
+      </c>
+      <c r="G233" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>65</v>
+      </c>
+      <c r="B234" t="s">
+        <v>4</v>
+      </c>
+      <c r="C234" t="s">
+        <v>463</v>
+      </c>
+      <c r="D234" t="s">
+        <v>495</v>
+      </c>
+      <c r="E234" t="s">
+        <v>500</v>
+      </c>
+      <c r="F234" t="s">
+        <v>508</v>
+      </c>
+      <c r="G234" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>65</v>
+      </c>
+      <c r="B235" t="s">
+        <v>4</v>
+      </c>
+      <c r="C235" t="s">
+        <v>463</v>
+      </c>
+      <c r="D235" t="s">
+        <v>495</v>
+      </c>
+      <c r="E235" t="s">
+        <v>501</v>
+      </c>
+      <c r="F235" t="s">
+        <v>509</v>
+      </c>
+      <c r="G235" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>65</v>
+      </c>
+      <c r="B236" t="s">
+        <v>4</v>
+      </c>
+      <c r="C236" t="s">
+        <v>463</v>
+      </c>
+      <c r="D236" t="s">
+        <v>495</v>
+      </c>
+      <c r="E236" t="s">
+        <v>502</v>
+      </c>
+      <c r="F236" t="s">
+        <v>510</v>
+      </c>
+      <c r="G236" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>66</v>
+      </c>
+      <c r="B237" t="s">
+        <v>4</v>
+      </c>
+      <c r="C237" t="s">
+        <v>463</v>
+      </c>
+      <c r="D237" t="s">
+        <v>511</v>
+      </c>
+      <c r="E237" t="s">
+        <v>513</v>
+      </c>
+      <c r="F237" t="s">
+        <v>34</v>
+      </c>
+      <c r="G237" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>66</v>
+      </c>
+      <c r="B238" t="s">
+        <v>4</v>
+      </c>
+      <c r="C238" t="s">
+        <v>463</v>
+      </c>
+      <c r="D238" t="s">
+        <v>511</v>
+      </c>
+      <c r="E238" t="s">
+        <v>514</v>
+      </c>
+      <c r="F238" t="s">
+        <v>34</v>
+      </c>
+      <c r="G238" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>66</v>
+      </c>
+      <c r="B239" t="s">
+        <v>4</v>
+      </c>
+      <c r="C239" t="s">
+        <v>463</v>
+      </c>
+      <c r="D239" t="s">
+        <v>511</v>
+      </c>
+      <c r="E239" t="s">
+        <v>512</v>
+      </c>
+      <c r="F239" t="s">
+        <v>515</v>
+      </c>
+      <c r="G239" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>67</v>
+      </c>
+      <c r="B240" t="s">
+        <v>4</v>
+      </c>
+      <c r="C240" t="s">
+        <v>516</v>
+      </c>
+      <c r="D240" t="s">
+        <v>517</v>
+      </c>
+      <c r="E240" t="s">
+        <v>518</v>
+      </c>
+      <c r="F240" t="s">
+        <v>523</v>
+      </c>
+      <c r="G240" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>67</v>
+      </c>
+      <c r="B241" t="s">
+        <v>4</v>
+      </c>
+      <c r="C241" t="s">
+        <v>516</v>
+      </c>
+      <c r="D241" t="s">
+        <v>517</v>
+      </c>
+      <c r="E241" t="s">
+        <v>519</v>
+      </c>
+      <c r="F241" t="s">
+        <v>524</v>
+      </c>
+      <c r="G241" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>67</v>
+      </c>
+      <c r="B242" t="s">
+        <v>4</v>
+      </c>
+      <c r="C242" t="s">
+        <v>516</v>
+      </c>
+      <c r="D242" t="s">
+        <v>517</v>
+      </c>
+      <c r="E242" t="s">
+        <v>520</v>
+      </c>
+      <c r="F242" t="s">
+        <v>525</v>
+      </c>
+      <c r="G242" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>67</v>
+      </c>
+      <c r="B243" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243" t="s">
+        <v>516</v>
+      </c>
+      <c r="D243" t="s">
+        <v>517</v>
+      </c>
+      <c r="E243" t="s">
+        <v>521</v>
+      </c>
+      <c r="F243" t="s">
+        <v>526</v>
+      </c>
+      <c r="G243" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>67</v>
+      </c>
+      <c r="B244" t="s">
+        <v>4</v>
+      </c>
+      <c r="C244" t="s">
+        <v>516</v>
+      </c>
+      <c r="D244" t="s">
+        <v>517</v>
+      </c>
+      <c r="E244" t="s">
+        <v>522</v>
+      </c>
+      <c r="F244" t="s">
+        <v>527</v>
+      </c>
+      <c r="G244" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>68</v>
+      </c>
+      <c r="B245" t="s">
+        <v>4</v>
+      </c>
+      <c r="C245" t="s">
+        <v>516</v>
+      </c>
+      <c r="D245" t="s">
+        <v>528</v>
+      </c>
+      <c r="E245" t="s">
+        <v>529</v>
+      </c>
+      <c r="F245" t="s">
+        <v>530</v>
+      </c>
+      <c r="G245" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>68</v>
+      </c>
+      <c r="B246" t="s">
+        <v>4</v>
+      </c>
+      <c r="C246" t="s">
+        <v>516</v>
+      </c>
+      <c r="D246" t="s">
+        <v>528</v>
+      </c>
+      <c r="E246" t="s">
+        <v>518</v>
+      </c>
+      <c r="F246" t="s">
+        <v>526</v>
+      </c>
+      <c r="G246" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>69</v>
+      </c>
+      <c r="B247" t="s">
+        <v>4</v>
+      </c>
+      <c r="C247" t="s">
+        <v>516</v>
+      </c>
+      <c r="D247" t="s">
+        <v>531</v>
+      </c>
+      <c r="E247" t="s">
+        <v>532</v>
+      </c>
+      <c r="F247" t="s">
+        <v>535</v>
+      </c>
+      <c r="G247" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>69</v>
+      </c>
+      <c r="B248" t="s">
+        <v>4</v>
+      </c>
+      <c r="C248" t="s">
+        <v>516</v>
+      </c>
+      <c r="D248" t="s">
+        <v>531</v>
+      </c>
+      <c r="E248" t="s">
+        <v>533</v>
+      </c>
+      <c r="F248" t="s">
+        <v>530</v>
+      </c>
+      <c r="G248" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>69</v>
+      </c>
+      <c r="B249" t="s">
+        <v>4</v>
+      </c>
+      <c r="C249" t="s">
+        <v>516</v>
+      </c>
+      <c r="D249" t="s">
+        <v>531</v>
+      </c>
+      <c r="E249" t="s">
+        <v>534</v>
+      </c>
+      <c r="F249" t="s">
+        <v>536</v>
+      </c>
+      <c r="G249" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>70</v>
+      </c>
+      <c r="B250" t="s">
+        <v>4</v>
+      </c>
+      <c r="C250" t="s">
+        <v>516</v>
+      </c>
+      <c r="D250" t="s">
+        <v>537</v>
+      </c>
+      <c r="E250" t="s">
+        <v>538</v>
+      </c>
+      <c r="F250" t="s">
+        <v>542</v>
+      </c>
+      <c r="G250" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>70</v>
+      </c>
+      <c r="B251" t="s">
+        <v>4</v>
+      </c>
+      <c r="C251" t="s">
+        <v>516</v>
+      </c>
+      <c r="D251" t="s">
+        <v>537</v>
+      </c>
+      <c r="E251" t="s">
+        <v>539</v>
+      </c>
+      <c r="F251" t="s">
+        <v>543</v>
+      </c>
+      <c r="G251" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>70</v>
+      </c>
+      <c r="B252" t="s">
+        <v>4</v>
+      </c>
+      <c r="C252" t="s">
+        <v>516</v>
+      </c>
+      <c r="D252" t="s">
+        <v>537</v>
+      </c>
+      <c r="E252" t="s">
+        <v>437</v>
+      </c>
+      <c r="F252" t="s">
+        <v>544</v>
+      </c>
+      <c r="G252" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>70</v>
+      </c>
+      <c r="B253" t="s">
+        <v>4</v>
+      </c>
+      <c r="C253" t="s">
+        <v>516</v>
+      </c>
+      <c r="D253" t="s">
+        <v>537</v>
+      </c>
+      <c r="E253" t="s">
+        <v>519</v>
+      </c>
+      <c r="F253" t="s">
+        <v>545</v>
+      </c>
+      <c r="G253" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>70</v>
+      </c>
+      <c r="B254" t="s">
+        <v>4</v>
+      </c>
+      <c r="C254" t="s">
+        <v>516</v>
+      </c>
+      <c r="D254" t="s">
+        <v>537</v>
+      </c>
+      <c r="E254" t="s">
+        <v>540</v>
+      </c>
+      <c r="F254" t="s">
+        <v>546</v>
+      </c>
+      <c r="G254" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>70</v>
+      </c>
+      <c r="B255" t="s">
+        <v>4</v>
+      </c>
+      <c r="C255" t="s">
+        <v>516</v>
+      </c>
+      <c r="D255" t="s">
+        <v>537</v>
+      </c>
+      <c r="E255" t="s">
+        <v>541</v>
+      </c>
+      <c r="F255" t="s">
+        <v>547</v>
+      </c>
+      <c r="G255" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>71</v>
+      </c>
+      <c r="B256" t="s">
+        <v>4</v>
+      </c>
+      <c r="C256" t="s">
+        <v>516</v>
+      </c>
+      <c r="D256" t="s">
+        <v>548</v>
+      </c>
+      <c r="E256" t="s">
+        <v>551</v>
+      </c>
+      <c r="F256" t="s">
+        <v>556</v>
+      </c>
+      <c r="G256" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>71</v>
+      </c>
+      <c r="B257" t="s">
+        <v>4</v>
+      </c>
+      <c r="C257" t="s">
+        <v>516</v>
+      </c>
+      <c r="D257" t="s">
+        <v>549</v>
+      </c>
+      <c r="E257" t="s">
+        <v>552</v>
+      </c>
+      <c r="F257" t="s">
+        <v>557</v>
+      </c>
+      <c r="G257" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>71</v>
+      </c>
+      <c r="B258" t="s">
+        <v>4</v>
+      </c>
+      <c r="C258" t="s">
+        <v>516</v>
+      </c>
+      <c r="D258" t="s">
+        <v>549</v>
+      </c>
+      <c r="E258" t="s">
+        <v>553</v>
+      </c>
+      <c r="F258" t="s">
+        <v>557</v>
+      </c>
+      <c r="G258" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>71</v>
+      </c>
+      <c r="B259" t="s">
+        <v>4</v>
+      </c>
+      <c r="C259" t="s">
+        <v>516</v>
+      </c>
+      <c r="D259" t="s">
+        <v>550</v>
+      </c>
+      <c r="E259" t="s">
+        <v>554</v>
+      </c>
+      <c r="F259" t="s">
+        <v>558</v>
+      </c>
+      <c r="G259" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>71</v>
+      </c>
+      <c r="B260" t="s">
+        <v>4</v>
+      </c>
+      <c r="C260" t="s">
+        <v>516</v>
+      </c>
+      <c r="D260" t="s">
+        <v>550</v>
+      </c>
+      <c r="E260" t="s">
+        <v>555</v>
+      </c>
+      <c r="F260" t="s">
+        <v>559</v>
+      </c>
+      <c r="G260" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>72</v>
+      </c>
+      <c r="B261" t="s">
+        <v>4</v>
+      </c>
+      <c r="C261" t="s">
+        <v>516</v>
+      </c>
+      <c r="D261" t="s">
+        <v>560</v>
+      </c>
+      <c r="E261" t="s">
+        <v>561</v>
+      </c>
+      <c r="F261" t="s">
+        <v>562</v>
+      </c>
+      <c r="G261" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>73</v>
+      </c>
+      <c r="B262" t="s">
+        <v>4</v>
+      </c>
+      <c r="C262" t="s">
+        <v>516</v>
+      </c>
+      <c r="D262" t="s">
+        <v>563</v>
+      </c>
+      <c r="E262" t="s">
+        <v>564</v>
+      </c>
+      <c r="F262" t="s">
+        <v>566</v>
+      </c>
+      <c r="G262" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>73</v>
+      </c>
+      <c r="B263" t="s">
+        <v>4</v>
+      </c>
+      <c r="C263" t="s">
+        <v>516</v>
+      </c>
+      <c r="D263" t="s">
+        <v>563</v>
+      </c>
+      <c r="E263" t="s">
+        <v>565</v>
+      </c>
+      <c r="F263" t="s">
+        <v>567</v>
+      </c>
+      <c r="G263" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>74</v>
+      </c>
+      <c r="B264" t="s">
+        <v>4</v>
+      </c>
+      <c r="C264" t="s">
+        <v>516</v>
+      </c>
+      <c r="D264" t="s">
+        <v>568</v>
+      </c>
+      <c r="E264" t="s">
+        <v>569</v>
+      </c>
+      <c r="F264" t="s">
+        <v>572</v>
+      </c>
+      <c r="G264" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>74</v>
+      </c>
+      <c r="B265" t="s">
+        <v>4</v>
+      </c>
+      <c r="C265" t="s">
+        <v>516</v>
+      </c>
+      <c r="D265" t="s">
+        <v>568</v>
+      </c>
+      <c r="E265" t="s">
+        <v>570</v>
+      </c>
+      <c r="F265" t="s">
+        <v>573</v>
+      </c>
+      <c r="G265" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>74</v>
+      </c>
+      <c r="B266" t="s">
+        <v>4</v>
+      </c>
+      <c r="C266" t="s">
+        <v>516</v>
+      </c>
+      <c r="D266" t="s">
+        <v>568</v>
+      </c>
+      <c r="E266" t="s">
+        <v>571</v>
+      </c>
+      <c r="F266" t="s">
+        <v>574</v>
+      </c>
+      <c r="G266" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>75</v>
+      </c>
+      <c r="B267" t="s">
+        <v>4</v>
+      </c>
+      <c r="C267" t="s">
+        <v>516</v>
+      </c>
+      <c r="D267" t="s">
+        <v>575</v>
+      </c>
+      <c r="E267" t="s">
+        <v>576</v>
+      </c>
+      <c r="F267" t="s">
+        <v>582</v>
+      </c>
+      <c r="G267" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>75</v>
+      </c>
+      <c r="B268" t="s">
+        <v>4</v>
+      </c>
+      <c r="C268" t="s">
+        <v>516</v>
+      </c>
+      <c r="D268" t="s">
+        <v>575</v>
+      </c>
+      <c r="E268" t="s">
+        <v>577</v>
+      </c>
+      <c r="F268" t="s">
+        <v>583</v>
+      </c>
+      <c r="G268" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>75</v>
+      </c>
+      <c r="B269" t="s">
+        <v>4</v>
+      </c>
+      <c r="C269" t="s">
+        <v>516</v>
+      </c>
+      <c r="D269" t="s">
+        <v>575</v>
+      </c>
+      <c r="E269" t="s">
+        <v>578</v>
+      </c>
+      <c r="F269" t="s">
+        <v>584</v>
+      </c>
+      <c r="G269" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>75</v>
+      </c>
+      <c r="B270" t="s">
+        <v>4</v>
+      </c>
+      <c r="C270" t="s">
+        <v>516</v>
+      </c>
+      <c r="D270" t="s">
+        <v>575</v>
+      </c>
+      <c r="E270" t="s">
+        <v>579</v>
+      </c>
+      <c r="F270" t="s">
+        <v>585</v>
+      </c>
+      <c r="G270" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>75</v>
+      </c>
+      <c r="B271" t="s">
+        <v>4</v>
+      </c>
+      <c r="C271" t="s">
+        <v>516</v>
+      </c>
+      <c r="D271" t="s">
+        <v>575</v>
+      </c>
+      <c r="E271" t="s">
+        <v>581</v>
+      </c>
+      <c r="F271" t="s">
+        <v>585</v>
+      </c>
+      <c r="G271" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>75</v>
+      </c>
+      <c r="B272" t="s">
+        <v>4</v>
+      </c>
+      <c r="C272" t="s">
+        <v>516</v>
+      </c>
+      <c r="D272" t="s">
+        <v>575</v>
+      </c>
+      <c r="E272" t="s">
+        <v>580</v>
+      </c>
+      <c r="F272" t="s">
+        <v>586</v>
+      </c>
+      <c r="G272" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>76</v>
+      </c>
+      <c r="B273" t="s">
+        <v>4</v>
+      </c>
+      <c r="C273" t="s">
+        <v>516</v>
+      </c>
+      <c r="D273" t="s">
+        <v>587</v>
+      </c>
+      <c r="E273" t="s">
+        <v>590</v>
+      </c>
+      <c r="F273" t="s">
+        <v>595</v>
+      </c>
+      <c r="G273" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>76</v>
+      </c>
+      <c r="B274" t="s">
+        <v>4</v>
+      </c>
+      <c r="C274" t="s">
+        <v>516</v>
+      </c>
+      <c r="D274" t="s">
+        <v>587</v>
+      </c>
+      <c r="E274" t="s">
+        <v>591</v>
+      </c>
+      <c r="F274" t="s">
+        <v>596</v>
+      </c>
+      <c r="G274" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>76</v>
+      </c>
+      <c r="B275" t="s">
+        <v>4</v>
+      </c>
+      <c r="C275" t="s">
+        <v>516</v>
+      </c>
+      <c r="D275" t="s">
+        <v>588</v>
+      </c>
+      <c r="E275" t="s">
+        <v>592</v>
+      </c>
+      <c r="F275" t="s">
+        <v>433</v>
+      </c>
+      <c r="G275" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>76</v>
+      </c>
+      <c r="B276" t="s">
+        <v>4</v>
+      </c>
+      <c r="C276" t="s">
+        <v>516</v>
+      </c>
+      <c r="D276" t="s">
+        <v>588</v>
+      </c>
+      <c r="E276" t="s">
+        <v>593</v>
+      </c>
+      <c r="F276" t="s">
+        <v>597</v>
+      </c>
+      <c r="G276" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>76</v>
+      </c>
+      <c r="B277" t="s">
+        <v>4</v>
+      </c>
+      <c r="C277" t="s">
+        <v>516</v>
+      </c>
+      <c r="D277" t="s">
+        <v>589</v>
+      </c>
+      <c r="E277" t="s">
+        <v>594</v>
+      </c>
+      <c r="F277" t="s">
+        <v>598</v>
+      </c>
+      <c r="G277" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>77</v>
+      </c>
+      <c r="B278" t="s">
+        <v>4</v>
+      </c>
+      <c r="C278" t="s">
+        <v>516</v>
+      </c>
+      <c r="D278" t="s">
+        <v>599</v>
+      </c>
+      <c r="E278" t="s">
+        <v>602</v>
+      </c>
+      <c r="F278" t="s">
+        <v>604</v>
+      </c>
+      <c r="G278" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>77</v>
+      </c>
+      <c r="B279" t="s">
+        <v>4</v>
+      </c>
+      <c r="C279" t="s">
+        <v>516</v>
+      </c>
+      <c r="D279" t="s">
+        <v>600</v>
+      </c>
+      <c r="E279" t="s">
+        <v>594</v>
+      </c>
+      <c r="F279" t="s">
+        <v>605</v>
+      </c>
+      <c r="G279" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>77</v>
+      </c>
+      <c r="B280" t="s">
+        <v>4</v>
+      </c>
+      <c r="C280" t="s">
+        <v>516</v>
+      </c>
+      <c r="D280" t="s">
+        <v>601</v>
+      </c>
+      <c r="E280" t="s">
+        <v>603</v>
+      </c>
+      <c r="F280" t="s">
+        <v>605</v>
+      </c>
+      <c r="G280" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>78</v>
+      </c>
+      <c r="B281" t="s">
+        <v>4</v>
+      </c>
+      <c r="C281" t="s">
+        <v>608</v>
+      </c>
+      <c r="D281" t="s">
+        <v>607</v>
+      </c>
+      <c r="E281" t="s">
+        <v>7</v>
+      </c>
+      <c r="F281" t="s">
+        <v>7</v>
+      </c>
+      <c r="I281" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>78</v>
+      </c>
+      <c r="B282" t="s">
+        <v>4</v>
+      </c>
+      <c r="C282" t="s">
+        <v>608</v>
+      </c>
+      <c r="E282" t="s">
+        <v>7</v>
+      </c>
+      <c r="F282" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>78</v>
+      </c>
+      <c r="B283" t="s">
+        <v>4</v>
+      </c>
+      <c r="C283" t="s">
+        <v>608</v>
+      </c>
+      <c r="E283" t="s">
+        <v>7</v>
+      </c>
+      <c r="F283" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>79</v>
+      </c>
+      <c r="B284" t="s">
+        <v>4</v>
+      </c>
+      <c r="C284" t="s">
+        <v>608</v>
+      </c>
+      <c r="E284" t="s">
+        <v>7</v>
+      </c>
+      <c r="F284" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>79</v>
+      </c>
+      <c r="B285" t="s">
+        <v>4</v>
+      </c>
+      <c r="C285" t="s">
+        <v>608</v>
+      </c>
+      <c r="E285" t="s">
+        <v>7</v>
+      </c>
+      <c r="F285" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>79</v>
+      </c>
+      <c r="B286" t="s">
+        <v>4</v>
+      </c>
+      <c r="C286" t="s">
+        <v>608</v>
+      </c>
+      <c r="E286" t="s">
+        <v>7</v>
+      </c>
+      <c r="F286" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>79</v>
+      </c>
+      <c r="B287" t="s">
+        <v>4</v>
+      </c>
+      <c r="C287" t="s">
+        <v>608</v>
+      </c>
+      <c r="E287" t="s">
+        <v>7</v>
+      </c>
+      <c r="F287" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>79</v>
+      </c>
+      <c r="B288" t="s">
+        <v>4</v>
+      </c>
+      <c r="C288" t="s">
+        <v>608</v>
+      </c>
+      <c r="E288" t="s">
+        <v>7</v>
+      </c>
+      <c r="F288" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>80</v>
+      </c>
+      <c r="B289" t="s">
+        <v>4</v>
+      </c>
+      <c r="C289" t="s">
+        <v>608</v>
+      </c>
+      <c r="E289" t="s">
+        <v>7</v>
+      </c>
+      <c r="F289" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>80</v>
+      </c>
+      <c r="B290" t="s">
+        <v>4</v>
+      </c>
+      <c r="C290" t="s">
+        <v>608</v>
+      </c>
+      <c r="E290" t="s">
+        <v>7</v>
+      </c>
+      <c r="F290" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>81</v>
+      </c>
+      <c r="B291" t="s">
+        <v>4</v>
+      </c>
+      <c r="C291" t="s">
+        <v>608</v>
+      </c>
+      <c r="E291" t="s">
+        <v>7</v>
+      </c>
+      <c r="F291" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>81</v>
+      </c>
+      <c r="B292" t="s">
+        <v>4</v>
+      </c>
+      <c r="C292" t="s">
+        <v>608</v>
+      </c>
+      <c r="E292" t="s">
+        <v>7</v>
+      </c>
+      <c r="F292" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>81</v>
+      </c>
+      <c r="B293" t="s">
+        <v>4</v>
+      </c>
+      <c r="C293" t="s">
+        <v>608</v>
+      </c>
+      <c r="E293" t="s">
+        <v>7</v>
+      </c>
+      <c r="F293" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>82</v>
+      </c>
+      <c r="B294" t="s">
+        <v>4</v>
+      </c>
+      <c r="C294" t="s">
+        <v>608</v>
+      </c>
+      <c r="E294" t="s">
+        <v>7</v>
+      </c>
+      <c r="F294" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>82</v>
+      </c>
+      <c r="B295" t="s">
+        <v>4</v>
+      </c>
+      <c r="C295" t="s">
+        <v>608</v>
+      </c>
+      <c r="E295" t="s">
+        <v>7</v>
+      </c>
+      <c r="F295" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>83</v>
+      </c>
+      <c r="B296" t="s">
+        <v>4</v>
+      </c>
+      <c r="C296" t="s">
+        <v>608</v>
+      </c>
+      <c r="E296" t="s">
+        <v>7</v>
+      </c>
+      <c r="F296" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>83</v>
+      </c>
+      <c r="B297" t="s">
+        <v>4</v>
+      </c>
+      <c r="C297" t="s">
+        <v>608</v>
+      </c>
+      <c r="E297" t="s">
+        <v>7</v>
+      </c>
+      <c r="F297" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>84</v>
+      </c>
+      <c r="B298" t="s">
+        <v>4</v>
+      </c>
+      <c r="C298" t="s">
+        <v>608</v>
+      </c>
+      <c r="E298" t="s">
+        <v>7</v>
+      </c>
+      <c r="F298" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>85</v>
+      </c>
+      <c r="B299" t="s">
+        <v>4</v>
+      </c>
+      <c r="C299" t="s">
+        <v>608</v>
+      </c>
+      <c r="E299" t="s">
+        <v>7</v>
+      </c>
+      <c r="F299" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>85</v>
+      </c>
+      <c r="B300" t="s">
+        <v>4</v>
+      </c>
+      <c r="C300" t="s">
+        <v>608</v>
+      </c>
+      <c r="E300" t="s">
+        <v>7</v>
+      </c>
+      <c r="F300" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>85</v>
+      </c>
+      <c r="B301" t="s">
+        <v>4</v>
+      </c>
+      <c r="C301" t="s">
+        <v>608</v>
+      </c>
+      <c r="E301" t="s">
+        <v>7</v>
+      </c>
+      <c r="F301" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>86</v>
+      </c>
+      <c r="B302" t="s">
+        <v>4</v>
+      </c>
+      <c r="C302" t="s">
+        <v>608</v>
+      </c>
+      <c r="E302" t="s">
+        <v>7</v>
+      </c>
+      <c r="F302" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>86</v>
+      </c>
+      <c r="B303" t="s">
+        <v>4</v>
+      </c>
+      <c r="C303" t="s">
+        <v>608</v>
+      </c>
+      <c r="E303" t="s">
+        <v>7</v>
+      </c>
+      <c r="F303" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>86</v>
+      </c>
+      <c r="B304" t="s">
+        <v>4</v>
+      </c>
+      <c r="C304" t="s">
+        <v>608</v>
+      </c>
+      <c r="E304" t="s">
+        <v>7</v>
+      </c>
+      <c r="F304" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>87</v>
+      </c>
+      <c r="B305" t="s">
+        <v>4</v>
+      </c>
+      <c r="C305" t="s">
+        <v>608</v>
+      </c>
+      <c r="E305" t="s">
+        <v>7</v>
+      </c>
+      <c r="F305" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>87</v>
+      </c>
+      <c r="B306" t="s">
+        <v>4</v>
+      </c>
+      <c r="C306" t="s">
+        <v>608</v>
+      </c>
+      <c r="E306" t="s">
+        <v>7</v>
+      </c>
+      <c r="F306" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>88</v>
+      </c>
+      <c r="B307" t="s">
+        <v>4</v>
+      </c>
+      <c r="C307" t="s">
+        <v>608</v>
+      </c>
+      <c r="E307" t="s">
+        <v>7</v>
+      </c>
+      <c r="F307" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>88</v>
+      </c>
+      <c r="B308" t="s">
+        <v>4</v>
+      </c>
+      <c r="C308" t="s">
+        <v>608</v>
+      </c>
+      <c r="E308" t="s">
+        <v>7</v>
+      </c>
+      <c r="F308" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>89</v>
+      </c>
+      <c r="B309" t="s">
+        <v>4</v>
+      </c>
+      <c r="C309" t="s">
+        <v>608</v>
+      </c>
+      <c r="E309" t="s">
+        <v>7</v>
+      </c>
+      <c r="F309" t="s">
         <v>7</v>
       </c>
     </row>

--- a/documents/troubleshooting.xlsx
+++ b/documents/troubleshooting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\chatbot_hipotese\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E26248-3D69-4B0C-B668-16AEE1645E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFA6238-6252-4E7B-B623-00D6DB825365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{FECC2DB1-AD25-4A84-8CFF-001A97E8E6FD}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="753">
   <si>
     <t>type</t>
   </si>
@@ -1862,13 +1862,445 @@
     <t>Clean and inspect the belt; Replace the belt as required.</t>
   </si>
   <si>
-    <t>ui</t>
-  </si>
-  <si>
     <t>Fan output below SCFM</t>
   </si>
   <si>
     <t>Fan Systems</t>
+  </si>
+  <si>
+    <t>Total resistance on system higher than expected</t>
+  </si>
+  <si>
+    <t>Dampers closed or partially closed</t>
+  </si>
+  <si>
+    <t>Speed too slow</t>
+  </si>
+  <si>
+    <t>check to see whether any dampers have been accidentally closed; Open any dampers that should be open.</t>
+  </si>
+  <si>
+    <t>Check the drive belts for slippage; Adjust the tension if the belts are not damaged; Ensure there is adequate lubrication to bearings; Have the electricians check out the motor.</t>
+  </si>
+  <si>
+    <t>Check whether any other fans are discharging into the same outlet as the fan having problems; This could be a design problem; Inform engineering for an evaluation.</t>
+  </si>
+  <si>
+    <t>Fan output below SCFM (continued)</t>
+  </si>
+  <si>
+    <t>Dampers or variable inlet vanes incorrectly set</t>
+  </si>
+  <si>
+    <t>Poor fan inlet conditions, such as choked filters.</t>
+  </si>
+  <si>
+    <t>Atmospheric air induction through ducting leaks</t>
+  </si>
+  <si>
+    <t>Fan rotation wrong</t>
+  </si>
+  <si>
+    <t>Wheel mounted backward on the shaft</t>
+  </si>
+  <si>
+    <t>Readjust the damper control linkage turnbuckles to the calibrated setpoints.</t>
+  </si>
+  <si>
+    <t>Check the pressure differential across the filters, and clean or replace the dirty filters.</t>
+  </si>
+  <si>
+    <t>Walk ducting system down, and check for leaks; An ultrasonic leak detector is an ideal tool to determine exactly where leaks occur.</t>
+  </si>
+  <si>
+    <t>Ensure that the belt drive is not crossed. Have the electricians check the rotation of the motor.</t>
+  </si>
+  <si>
+    <t>Stop the fan, and have maintenance reverse the wheel.</t>
+  </si>
+  <si>
+    <t>Vibration and noise</t>
+  </si>
+  <si>
+    <t>Unbalance due to dirt buildup on fan blades</t>
+  </si>
+  <si>
+    <t>Poor foundations or warped baseplate</t>
+  </si>
+  <si>
+    <t>Check the foundations for cracks and breakage; Report the findings to engineering for resolution.</t>
+  </si>
+  <si>
+    <t>Perform Vibration analysis to determine the magnitude of the problem, and then balance the fan; Water wash the fan blades to remove the buildup of dirt; If the fan operates in a boiler exhaust system or some other high temperature gaseous system, descale the blades.</t>
+  </si>
+  <si>
+    <t>Vibration and noise (continued)</t>
+  </si>
+  <si>
+    <t>Soft-foot conditions</t>
+  </si>
+  <si>
+    <t>No zero cold-spring of ductwork at the fan connecfion</t>
+  </si>
+  <si>
+    <t>Perform vibration analysis to determine the magnitude of the problem, and then align the fan shafts.</t>
+  </si>
+  <si>
+    <t>Perform a soft-foot check on all the feet of the unit to determine if a soft-foot condition is the problem; Add or remove shims to correct condition.</t>
+  </si>
+  <si>
+    <t>Check for ducting distortion if no expansion or flex joint is fitted; Adjust the hangers as needed.</t>
+  </si>
+  <si>
+    <t>Damaged bearings</t>
+  </si>
+  <si>
+    <t>Belt drive misalignment</t>
+  </si>
+  <si>
+    <t>Bad lubrication</t>
+  </si>
+  <si>
+    <t>Ensure that the sheaves are the same width and are properly aligned with each other.</t>
+  </si>
+  <si>
+    <t>Ensure that the correct lubricant is being used and that the bearings are vented during the lubricant application.</t>
+  </si>
+  <si>
+    <t>Damaged bearings (continued)</t>
+  </si>
+  <si>
+    <t>Bent shalt</t>
+  </si>
+  <si>
+    <t>Ensure that the bearing installation practices are correct.</t>
+  </si>
+  <si>
+    <t>When the fan is off, ensure that the unit is tumed to change the resting point periodically to prevent the shaft from sagging due to its own weight; Check the bearing mounts for undue stress due to bad foundations and misaligned ductwork.</t>
+  </si>
+  <si>
+    <t>Misaligned belt drives</t>
+  </si>
+  <si>
+    <t>Ensure that the belts are sitting in the correct sheaves and are aligned to run true in the V-grooves; Check the lineup of the sidewalls of the sheaves with a straightedge or a stretched string.</t>
+  </si>
+  <si>
+    <t>Worn coupling</t>
+  </si>
+  <si>
+    <t>Resonance effect from another machine(s)</t>
+  </si>
+  <si>
+    <t>Fan rotating in wrong direction</t>
+  </si>
+  <si>
+    <t>Conduct a vibration analysis to determine whether the coupling is worn; The wrong grade of lubricant may have been used and accumulated in one spot, causing an unbalanced condition.</t>
+  </si>
+  <si>
+    <t>Perform an evaluation to determine the extent of resonance and to track down the excitation source(s); To temporarily stop resonance-induced vibration, alter the mass of the unit by placing some weight, such as a bag of sand, on the unit.</t>
+  </si>
+  <si>
+    <t>Have electricians check the motor rotation and correct the rotation as required.</t>
+  </si>
+  <si>
+    <t>Bearing overheating</t>
+  </si>
+  <si>
+    <t>Partial offset restriction on inlet side of fan, causing it to unload</t>
+  </si>
+  <si>
+    <t>Overlubrication of bearing</t>
+  </si>
+  <si>
+    <t>Determine the capacity of the bearing, and follow the manufacturer's recommendations for lubrication.</t>
+  </si>
+  <si>
+    <t>Ensure that no foreign objects are causing a partial blockage on the inlet side of the fan; As fan blades turn past the obstruction, they will be unable to carry the full load and deflect.</t>
+  </si>
+  <si>
+    <t>Unbalance</t>
+  </si>
+  <si>
+    <t>Rotate the shaft, and let it roll until it comes to rest on its own to check for static unbalance; Static unbalance can be corrected by hanging an appropriate weight opposite the resting, 6 o'clock position; Engineers who have the proper instrumentation should do more complex balance correction.</t>
+  </si>
+  <si>
+    <t>When the fan is off, make sure the unit is turned off the resting point periodically to prevent the shaft from sagging due to its owm weight; Check for undue stress on bearing mounts because of bad foundations and misaligned ductwork.</t>
+  </si>
+  <si>
+    <t>Bearings overheating (continued)</t>
+  </si>
+  <si>
+    <t>Over-tensioned belts</t>
+  </si>
+  <si>
+    <t>Abnormal axial thrusting caused by misaligned belts</t>
+  </si>
+  <si>
+    <t>Depress the belts at midspan, and measure the deflection to test the belt tension; The deflection should be equal to 1/64" per inch of span between the centers of the driven and driver units.</t>
+  </si>
+  <si>
+    <t>This can be cause by gross misalignment between the driver and the driven units; It can also be caused when one sheave is wider than the other one; To correct either one, align the belts to the center of the V in each sheave.</t>
+  </si>
+  <si>
+    <t>Sheaves that have eccentric bores due to poor machining practices or cast with boss off-center</t>
+  </si>
+  <si>
+    <t>Plug the bore, and remachine it true; Eccentric bores cause the sheaves to turn off center, causing the belts to tension and detension each revolution; This continual jerking back and forth causes the bearings to take a terrible pounding; Keys and setscrews can have the same effect by drawing a sheave ofllcenter when the force is tightened.</t>
+  </si>
+  <si>
+    <t>Steam Traps</t>
+  </si>
+  <si>
+    <t>Trap blowing live steam</t>
+  </si>
+  <si>
+    <t>No prime, bucket, or traps because Trap not primed when originally installed</t>
+  </si>
+  <si>
+    <t>No prime, bucket, or traps because Trap not primed after cleaned</t>
+  </si>
+  <si>
+    <t>Prime the trap.</t>
+  </si>
+  <si>
+    <t>Prime the cleaned trap.</t>
+  </si>
+  <si>
+    <t>Trap blowing live steam (continued)</t>
+  </si>
+  <si>
+    <t>Bypass valve open or leaking</t>
+  </si>
+  <si>
+    <t>Sudden pressure drop</t>
+  </si>
+  <si>
+    <t>Remove or repair the bypass valve.</t>
+  </si>
+  <si>
+    <t>Install a check valve ahead of the trap.</t>
+  </si>
+  <si>
+    <t>Valve mechanism not closing because Scale or dirt lodged in orifice</t>
+  </si>
+  <si>
+    <t>Worn or defective valve or disc mechanism</t>
+  </si>
+  <si>
+    <t>Ruptured bellows (thermostatic traps)</t>
+  </si>
+  <si>
+    <t>Clean the trap.</t>
+  </si>
+  <si>
+    <t>Repair or replace the defective parts.</t>
+  </si>
+  <si>
+    <t>Replace the bellows.</t>
+  </si>
+  <si>
+    <t>Back pressure too high in a thermodynamic trap because Worn or defective parts</t>
+  </si>
+  <si>
+    <t>Back pressure too high in a thermodynamic trap because Trap stuck open</t>
+  </si>
+  <si>
+    <t>Back pressure too high in a thermodynamic trap because Undersized condensate return line or pig tank</t>
+  </si>
+  <si>
+    <t>Back pressure too high in a thermodynamic trap because Blowing flash steam caused by flash steam forming when the condensate is released to a lower or atmospheric pressure</t>
+  </si>
+  <si>
+    <t>Increase the line or pig tank size.</t>
+  </si>
+  <si>
+    <t>No corrective action is required for this normal condition.</t>
+  </si>
+  <si>
+    <t>Pressure too high because Trap rating too low</t>
+  </si>
+  <si>
+    <t>Pressure too high because Orifice enlarged by normal wear</t>
+  </si>
+  <si>
+    <t>Pressure too high because Pressure-reducing valve set too high or broken</t>
+  </si>
+  <si>
+    <t>Pressure too high because System pressure raised</t>
+  </si>
+  <si>
+    <t>Trap not discharging</t>
+  </si>
+  <si>
+    <t>Install the correct size trap.</t>
+  </si>
+  <si>
+    <t>Replace the worn orifice.</t>
+  </si>
+  <si>
+    <t>Readjust or replace the pressure-reducing valve; The valve may require a new diaphragm.</t>
+  </si>
+  <si>
+    <t>Install the correct pressure change assembly.</t>
+  </si>
+  <si>
+    <t>Trap not discharging (continued)</t>
+  </si>
+  <si>
+    <t>Condensate not reaching the trap because Strainer clogged</t>
+  </si>
+  <si>
+    <t>Condensate not reaching the trap because Obstruction in the line to the trap</t>
+  </si>
+  <si>
+    <t>Condensate not reaching the trap because Bypass valve opening or leaking</t>
+  </si>
+  <si>
+    <t>Blow out the screen with air, or replace it.</t>
+  </si>
+  <si>
+    <t>Condensate not reaching the trap because Steam supply line shut off</t>
+  </si>
+  <si>
+    <t>Condensate not reaching the trap because Trap clogged with foreign matter</t>
+  </si>
+  <si>
+    <t>Condensate not reaching the trap because Trap held closed by a defective mechanism</t>
+  </si>
+  <si>
+    <t>Condensate not reaching the trap because High vacuum in the condensate return line</t>
+  </si>
+  <si>
+    <t>Open the steam supply valve.</t>
+  </si>
+  <si>
+    <t>Clean the strainer, and reinstall it.</t>
+  </si>
+  <si>
+    <t>Repair or replace the defective mechanism.</t>
+  </si>
+  <si>
+    <t>No pressure differential across the trap because Blocked or restricted condensate retum line</t>
+  </si>
+  <si>
+    <t>No pressure differential across the trap because Incorrect pressure change assembly</t>
+  </si>
+  <si>
+    <t>Remove the restriction.</t>
+  </si>
+  <si>
+    <t>Continuous discharge from trap</t>
+  </si>
+  <si>
+    <t>Trap too small and undersized for the capacity being handled</t>
+  </si>
+  <si>
+    <t>Trap pressure rating too high</t>
+  </si>
+  <si>
+    <t>Trap clogged</t>
+  </si>
+  <si>
+    <t>Strainer plugged</t>
+  </si>
+  <si>
+    <t>Bellows overstressed in a themiostatic trap</t>
+  </si>
+  <si>
+    <t>Loss of the prime</t>
+  </si>
+  <si>
+    <t>Failure of valve to seat due to worn valve and seat</t>
+  </si>
+  <si>
+    <t>Install the proper size trap.</t>
+  </si>
+  <si>
+    <t>Clean the trap internals, and reinstall the strainer.</t>
+  </si>
+  <si>
+    <t>Clean the strainer.</t>
+  </si>
+  <si>
+    <t>Install a check valve on the inlet side of the trap.</t>
+  </si>
+  <si>
+    <t>Replace the wom parts.</t>
+  </si>
+  <si>
+    <t>Continuous discharge from the trap (continued)</t>
+  </si>
+  <si>
+    <t>Sluggish or uneven heating</t>
+  </si>
+  <si>
+    <t>Scale and dirt deposits under the valve and in the orifice</t>
+  </si>
+  <si>
+    <t>Worn guide pins and lever</t>
+  </si>
+  <si>
+    <t>Capacity margin in trap for heavy starting loads</t>
+  </si>
+  <si>
+    <t>Insufficient air handling capacity on bucket traps</t>
+  </si>
+  <si>
+    <t>Short circuiting by using group traps</t>
+  </si>
+  <si>
+    <t>Replace the worn parts.</t>
+  </si>
+  <si>
+    <t>Install the proper size larger trap.</t>
+  </si>
+  <si>
+    <t>Use thermic buckets, or increase the vent size.</t>
+  </si>
+  <si>
+    <t>When steam traps are grouped, i.e. multiple traps are run into the same line, there is a possibility of condensate backup due to pressure inconsistencies or obstructions; Systems with many traps feeding into one return line are hard to troubleshoot because it is hard to determine which trap has the problem; Pipe traps individually from vessels.</t>
+  </si>
+  <si>
+    <t>Sluggrsh or uneven heating (continued)</t>
+  </si>
+  <si>
+    <t>Back pressure troubles</t>
+  </si>
+  <si>
+    <t>Inadequate steam supply due to pressure valve change</t>
+  </si>
+  <si>
+    <t>Steam pressure-reducing valve setting off</t>
+  </si>
+  <si>
+    <t>Condensate return line too small</t>
+  </si>
+  <si>
+    <t>Other traps blowing steam into header</t>
+  </si>
+  <si>
+    <t>Pig tank vent line plugged</t>
+  </si>
+  <si>
+    <t>Obstruction in return line</t>
+  </si>
+  <si>
+    <t>Excess vacuum in return line</t>
+  </si>
+  <si>
+    <t>Restore normal steam pressure.</t>
+  </si>
+  <si>
+    <t>Readjust or replace the reducing valve.</t>
+  </si>
+  <si>
+    <t>Install a larger condensate return line.</t>
+  </si>
+  <si>
+    <t>Locate and repair other faulty traps.</t>
+  </si>
+  <si>
+    <t>Clean out pig tank vent line.</t>
   </si>
 </sst>
 </file>
@@ -2241,10 +2673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BF1FA3-F49E-46EE-B806-EC0466971FE5}">
-  <dimension ref="A1:J309"/>
+  <dimension ref="A1:J352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D283" sqref="D283"/>
+    <sheetView tabSelected="1" topLeftCell="A340" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I345" sqref="I345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8521,7 +8953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>76</v>
       </c>
@@ -8544,7 +8976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>76</v>
       </c>
@@ -8567,7 +8999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>76</v>
       </c>
@@ -8590,7 +9022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>76</v>
       </c>
@@ -8613,7 +9045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>76</v>
       </c>
@@ -8636,7 +9068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>77</v>
       </c>
@@ -8659,7 +9091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>77</v>
       </c>
@@ -8682,7 +9114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>77</v>
       </c>
@@ -8705,7 +9137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>78</v>
       </c>
@@ -8713,22 +9145,22 @@
         <v>4</v>
       </c>
       <c r="C281" t="s">
+        <v>607</v>
+      </c>
+      <c r="D281" t="s">
+        <v>606</v>
+      </c>
+      <c r="E281" t="s">
         <v>608</v>
       </c>
-      <c r="D281" t="s">
-        <v>607</v>
-      </c>
-      <c r="E281" t="s">
-        <v>7</v>
-      </c>
       <c r="F281" t="s">
-        <v>7</v>
-      </c>
-      <c r="I281" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+      <c r="G281" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>78</v>
       </c>
@@ -8736,16 +9168,22 @@
         <v>4</v>
       </c>
       <c r="C282" t="s">
-        <v>608</v>
+        <v>607</v>
+      </c>
+      <c r="D282" t="s">
+        <v>606</v>
       </c>
       <c r="E282" t="s">
-        <v>7</v>
+        <v>609</v>
       </c>
       <c r="F282" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+      <c r="G282" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>78</v>
       </c>
@@ -8753,16 +9191,22 @@
         <v>4</v>
       </c>
       <c r="C283" t="s">
-        <v>608</v>
+        <v>607</v>
+      </c>
+      <c r="D283" t="s">
+        <v>606</v>
       </c>
       <c r="E283" t="s">
-        <v>7</v>
+        <v>610</v>
       </c>
       <c r="F283" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+      <c r="G283" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>79</v>
       </c>
@@ -8770,16 +9214,22 @@
         <v>4</v>
       </c>
       <c r="C284" t="s">
-        <v>608</v>
+        <v>607</v>
+      </c>
+      <c r="D284" t="s">
+        <v>614</v>
       </c>
       <c r="E284" t="s">
-        <v>7</v>
+        <v>615</v>
       </c>
       <c r="F284" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+      <c r="G284" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>79</v>
       </c>
@@ -8787,16 +9237,22 @@
         <v>4</v>
       </c>
       <c r="C285" t="s">
-        <v>608</v>
+        <v>607</v>
+      </c>
+      <c r="D285" t="s">
+        <v>614</v>
       </c>
       <c r="E285" t="s">
-        <v>7</v>
+        <v>616</v>
       </c>
       <c r="F285" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+      <c r="G285" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>79</v>
       </c>
@@ -8804,16 +9260,22 @@
         <v>4</v>
       </c>
       <c r="C286" t="s">
-        <v>608</v>
+        <v>607</v>
+      </c>
+      <c r="D286" t="s">
+        <v>614</v>
       </c>
       <c r="E286" t="s">
-        <v>7</v>
+        <v>617</v>
       </c>
       <c r="F286" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+      <c r="G286" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>79</v>
       </c>
@@ -8821,16 +9283,22 @@
         <v>4</v>
       </c>
       <c r="C287" t="s">
-        <v>608</v>
+        <v>607</v>
+      </c>
+      <c r="D287" t="s">
+        <v>614</v>
       </c>
       <c r="E287" t="s">
-        <v>7</v>
+        <v>618</v>
       </c>
       <c r="F287" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+      <c r="G287" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>79</v>
       </c>
@@ -8838,16 +9306,22 @@
         <v>4</v>
       </c>
       <c r="C288" t="s">
-        <v>608</v>
+        <v>607</v>
+      </c>
+      <c r="D288" t="s">
+        <v>614</v>
       </c>
       <c r="E288" t="s">
-        <v>7</v>
+        <v>619</v>
       </c>
       <c r="F288" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+      <c r="G288" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>80</v>
       </c>
@@ -8855,16 +9329,22 @@
         <v>4</v>
       </c>
       <c r="C289" t="s">
-        <v>608</v>
+        <v>607</v>
+      </c>
+      <c r="D289" t="s">
+        <v>625</v>
       </c>
       <c r="E289" t="s">
-        <v>7</v>
+        <v>626</v>
       </c>
       <c r="F289" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+      <c r="G289" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>80</v>
       </c>
@@ -8872,16 +9352,22 @@
         <v>4</v>
       </c>
       <c r="C290" t="s">
-        <v>608</v>
+        <v>607</v>
+      </c>
+      <c r="D290" t="s">
+        <v>625</v>
       </c>
       <c r="E290" t="s">
-        <v>7</v>
+        <v>627</v>
       </c>
       <c r="F290" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+      <c r="G290" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>81</v>
       </c>
@@ -8889,16 +9375,22 @@
         <v>4</v>
       </c>
       <c r="C291" t="s">
-        <v>608</v>
+        <v>607</v>
+      </c>
+      <c r="D291" t="s">
+        <v>630</v>
       </c>
       <c r="E291" t="s">
-        <v>7</v>
+        <v>437</v>
       </c>
       <c r="F291" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="G291" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>81</v>
       </c>
@@ -8906,16 +9398,22 @@
         <v>4</v>
       </c>
       <c r="C292" t="s">
-        <v>608</v>
+        <v>607</v>
+      </c>
+      <c r="D292" t="s">
+        <v>630</v>
       </c>
       <c r="E292" t="s">
-        <v>7</v>
+        <v>631</v>
       </c>
       <c r="F292" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+      <c r="G292" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>81</v>
       </c>
@@ -8923,16 +9421,22 @@
         <v>4</v>
       </c>
       <c r="C293" t="s">
-        <v>608</v>
+        <v>607</v>
+      </c>
+      <c r="D293" t="s">
+        <v>630</v>
       </c>
       <c r="E293" t="s">
-        <v>7</v>
+        <v>632</v>
       </c>
       <c r="F293" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+      <c r="G293" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>82</v>
       </c>
@@ -8940,16 +9444,22 @@
         <v>4</v>
       </c>
       <c r="C294" t="s">
-        <v>608</v>
+        <v>607</v>
+      </c>
+      <c r="D294" t="s">
+        <v>636</v>
       </c>
       <c r="E294" t="s">
-        <v>7</v>
+        <v>637</v>
       </c>
       <c r="F294" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+      <c r="G294" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>82</v>
       </c>
@@ -8957,16 +9467,22 @@
         <v>4</v>
       </c>
       <c r="C295" t="s">
-        <v>608</v>
+        <v>607</v>
+      </c>
+      <c r="D295" t="s">
+        <v>636</v>
       </c>
       <c r="E295" t="s">
-        <v>7</v>
+        <v>638</v>
       </c>
       <c r="F295" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+      <c r="G295" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>83</v>
       </c>
@@ -8974,16 +9490,22 @@
         <v>4</v>
       </c>
       <c r="C296" t="s">
-        <v>608</v>
+        <v>607</v>
+      </c>
+      <c r="D296" t="s">
+        <v>641</v>
       </c>
       <c r="E296" t="s">
         <v>7</v>
       </c>
       <c r="F296" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+      <c r="G296" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>83</v>
       </c>
@@ -8991,16 +9513,22 @@
         <v>4</v>
       </c>
       <c r="C297" t="s">
-        <v>608</v>
+        <v>607</v>
+      </c>
+      <c r="D297" t="s">
+        <v>641</v>
       </c>
       <c r="E297" t="s">
-        <v>7</v>
+        <v>642</v>
       </c>
       <c r="F297" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+      <c r="G297" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>84</v>
       </c>
@@ -9008,16 +9536,22 @@
         <v>4</v>
       </c>
       <c r="C298" t="s">
-        <v>608</v>
+        <v>607</v>
+      </c>
+      <c r="D298" t="s">
+        <v>641</v>
       </c>
       <c r="E298" t="s">
-        <v>7</v>
+        <v>645</v>
       </c>
       <c r="F298" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+      <c r="G298" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>85</v>
       </c>
@@ -9025,16 +9559,22 @@
         <v>4</v>
       </c>
       <c r="C299" t="s">
-        <v>608</v>
+        <v>607</v>
+      </c>
+      <c r="D299" t="s">
+        <v>641</v>
       </c>
       <c r="E299" t="s">
-        <v>7</v>
+        <v>647</v>
       </c>
       <c r="F299" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+      <c r="G299" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>85</v>
       </c>
@@ -9042,16 +9582,22 @@
         <v>4</v>
       </c>
       <c r="C300" t="s">
-        <v>608</v>
+        <v>607</v>
+      </c>
+      <c r="D300" t="s">
+        <v>641</v>
       </c>
       <c r="E300" t="s">
-        <v>7</v>
+        <v>648</v>
       </c>
       <c r="F300" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+      <c r="G300" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>85</v>
       </c>
@@ -9059,16 +9605,22 @@
         <v>4</v>
       </c>
       <c r="C301" t="s">
-        <v>608</v>
+        <v>607</v>
+      </c>
+      <c r="D301" t="s">
+        <v>641</v>
       </c>
       <c r="E301" t="s">
-        <v>7</v>
+        <v>649</v>
       </c>
       <c r="F301" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+      <c r="G301" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>86</v>
       </c>
@@ -9076,16 +9628,22 @@
         <v>4</v>
       </c>
       <c r="C302" t="s">
-        <v>608</v>
+        <v>607</v>
+      </c>
+      <c r="D302" t="s">
+        <v>641</v>
       </c>
       <c r="E302" t="s">
-        <v>7</v>
+        <v>654</v>
       </c>
       <c r="F302" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+      <c r="G302" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>86</v>
       </c>
@@ -9093,16 +9651,22 @@
         <v>4</v>
       </c>
       <c r="C303" t="s">
-        <v>608</v>
+        <v>607</v>
+      </c>
+      <c r="D303" t="s">
+        <v>653</v>
       </c>
       <c r="E303" t="s">
-        <v>7</v>
+        <v>655</v>
       </c>
       <c r="F303" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+      <c r="G303" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>86</v>
       </c>
@@ -9110,16 +9674,22 @@
         <v>4</v>
       </c>
       <c r="C304" t="s">
-        <v>608</v>
+        <v>607</v>
+      </c>
+      <c r="D304" t="s">
+        <v>653</v>
       </c>
       <c r="E304" t="s">
-        <v>7</v>
+        <v>437</v>
       </c>
       <c r="F304" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+      <c r="G304" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>87</v>
       </c>
@@ -9127,16 +9697,22 @@
         <v>4</v>
       </c>
       <c r="C305" t="s">
-        <v>608</v>
+        <v>607</v>
+      </c>
+      <c r="D305" t="s">
+        <v>661</v>
       </c>
       <c r="E305" t="s">
-        <v>7</v>
+        <v>658</v>
       </c>
       <c r="F305" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+      <c r="G305" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>87</v>
       </c>
@@ -9144,16 +9720,22 @@
         <v>4</v>
       </c>
       <c r="C306" t="s">
-        <v>608</v>
+        <v>607</v>
+      </c>
+      <c r="D306" t="s">
+        <v>661</v>
       </c>
       <c r="E306" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="F306" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+      <c r="G306" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>88</v>
       </c>
@@ -9161,16 +9743,22 @@
         <v>4</v>
       </c>
       <c r="C307" t="s">
-        <v>608</v>
+        <v>607</v>
+      </c>
+      <c r="D307" t="s">
+        <v>661</v>
       </c>
       <c r="E307" t="s">
-        <v>7</v>
+        <v>662</v>
       </c>
       <c r="F307" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+      <c r="G307" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>88</v>
       </c>
@@ -9178,16 +9766,22 @@
         <v>4</v>
       </c>
       <c r="C308" t="s">
-        <v>608</v>
+        <v>607</v>
+      </c>
+      <c r="D308" t="s">
+        <v>661</v>
       </c>
       <c r="E308" t="s">
-        <v>7</v>
+        <v>663</v>
       </c>
       <c r="F308" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+      <c r="G308" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>89</v>
       </c>
@@ -9195,12 +9789,1007 @@
         <v>4</v>
       </c>
       <c r="C309" t="s">
-        <v>608</v>
+        <v>607</v>
+      </c>
+      <c r="D309" t="s">
+        <v>661</v>
       </c>
       <c r="E309" t="s">
-        <v>7</v>
+        <v>666</v>
       </c>
       <c r="F309" t="s">
+        <v>667</v>
+      </c>
+      <c r="G309" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>90</v>
+      </c>
+      <c r="B310" t="s">
+        <v>4</v>
+      </c>
+      <c r="C310" t="s">
+        <v>668</v>
+      </c>
+      <c r="D310" t="s">
+        <v>669</v>
+      </c>
+      <c r="E310" t="s">
+        <v>670</v>
+      </c>
+      <c r="F310" t="s">
+        <v>672</v>
+      </c>
+      <c r="G310" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>90</v>
+      </c>
+      <c r="B311" t="s">
+        <v>4</v>
+      </c>
+      <c r="C311" t="s">
+        <v>668</v>
+      </c>
+      <c r="D311" t="s">
+        <v>669</v>
+      </c>
+      <c r="E311" t="s">
+        <v>671</v>
+      </c>
+      <c r="F311" t="s">
+        <v>673</v>
+      </c>
+      <c r="G311" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>91</v>
+      </c>
+      <c r="B312" t="s">
+        <v>4</v>
+      </c>
+      <c r="C312" t="s">
+        <v>668</v>
+      </c>
+      <c r="D312" t="s">
+        <v>674</v>
+      </c>
+      <c r="E312" t="s">
+        <v>675</v>
+      </c>
+      <c r="F312" t="s">
+        <v>677</v>
+      </c>
+      <c r="G312" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>91</v>
+      </c>
+      <c r="B313" t="s">
+        <v>4</v>
+      </c>
+      <c r="C313" t="s">
+        <v>668</v>
+      </c>
+      <c r="D313" t="s">
+        <v>674</v>
+      </c>
+      <c r="E313" t="s">
+        <v>676</v>
+      </c>
+      <c r="F313" t="s">
+        <v>678</v>
+      </c>
+      <c r="G313" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>92</v>
+      </c>
+      <c r="B314" t="s">
+        <v>4</v>
+      </c>
+      <c r="C314" t="s">
+        <v>668</v>
+      </c>
+      <c r="D314" t="s">
+        <v>674</v>
+      </c>
+      <c r="E314" t="s">
+        <v>679</v>
+      </c>
+      <c r="F314" t="s">
+        <v>682</v>
+      </c>
+      <c r="G314" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>92</v>
+      </c>
+      <c r="B315" t="s">
+        <v>4</v>
+      </c>
+      <c r="C315" t="s">
+        <v>668</v>
+      </c>
+      <c r="D315" t="s">
+        <v>674</v>
+      </c>
+      <c r="E315" t="s">
+        <v>680</v>
+      </c>
+      <c r="F315" t="s">
+        <v>683</v>
+      </c>
+      <c r="G315" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>92</v>
+      </c>
+      <c r="B316" t="s">
+        <v>4</v>
+      </c>
+      <c r="C316" t="s">
+        <v>668</v>
+      </c>
+      <c r="D316" t="s">
+        <v>674</v>
+      </c>
+      <c r="E316" t="s">
+        <v>681</v>
+      </c>
+      <c r="F316" t="s">
+        <v>684</v>
+      </c>
+      <c r="G316" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>93</v>
+      </c>
+      <c r="B317" t="s">
+        <v>4</v>
+      </c>
+      <c r="C317" t="s">
+        <v>668</v>
+      </c>
+      <c r="D317" t="s">
+        <v>674</v>
+      </c>
+      <c r="E317" t="s">
+        <v>685</v>
+      </c>
+      <c r="F317" t="s">
+        <v>683</v>
+      </c>
+      <c r="G317" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>93</v>
+      </c>
+      <c r="B318" t="s">
+        <v>4</v>
+      </c>
+      <c r="C318" t="s">
+        <v>668</v>
+      </c>
+      <c r="D318" t="s">
+        <v>674</v>
+      </c>
+      <c r="E318" t="s">
+        <v>686</v>
+      </c>
+      <c r="F318" t="s">
+        <v>682</v>
+      </c>
+      <c r="G318" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>93</v>
+      </c>
+      <c r="B319" t="s">
+        <v>4</v>
+      </c>
+      <c r="C319" t="s">
+        <v>668</v>
+      </c>
+      <c r="D319" t="s">
+        <v>674</v>
+      </c>
+      <c r="E319" t="s">
+        <v>687</v>
+      </c>
+      <c r="F319" t="s">
+        <v>689</v>
+      </c>
+      <c r="G319" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>93</v>
+      </c>
+      <c r="B320" t="s">
+        <v>4</v>
+      </c>
+      <c r="C320" t="s">
+        <v>668</v>
+      </c>
+      <c r="D320" t="s">
+        <v>674</v>
+      </c>
+      <c r="E320" t="s">
+        <v>688</v>
+      </c>
+      <c r="F320" t="s">
+        <v>690</v>
+      </c>
+      <c r="G320" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <v>94</v>
+      </c>
+      <c r="B321" t="s">
+        <v>4</v>
+      </c>
+      <c r="C321" t="s">
+        <v>668</v>
+      </c>
+      <c r="D321" t="s">
+        <v>695</v>
+      </c>
+      <c r="E321" t="s">
+        <v>691</v>
+      </c>
+      <c r="F321" t="s">
+        <v>696</v>
+      </c>
+      <c r="G321" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>94</v>
+      </c>
+      <c r="B322" t="s">
+        <v>4</v>
+      </c>
+      <c r="C322" t="s">
+        <v>668</v>
+      </c>
+      <c r="D322" t="s">
+        <v>695</v>
+      </c>
+      <c r="E322" t="s">
+        <v>692</v>
+      </c>
+      <c r="F322" t="s">
+        <v>697</v>
+      </c>
+      <c r="G322" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>94</v>
+      </c>
+      <c r="B323" t="s">
+        <v>4</v>
+      </c>
+      <c r="C323" t="s">
+        <v>668</v>
+      </c>
+      <c r="D323" t="s">
+        <v>695</v>
+      </c>
+      <c r="E323" t="s">
+        <v>693</v>
+      </c>
+      <c r="F323" t="s">
+        <v>698</v>
+      </c>
+      <c r="G323" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>94</v>
+      </c>
+      <c r="B324" t="s">
+        <v>4</v>
+      </c>
+      <c r="C324" t="s">
+        <v>668</v>
+      </c>
+      <c r="D324" t="s">
+        <v>695</v>
+      </c>
+      <c r="E324" t="s">
+        <v>694</v>
+      </c>
+      <c r="F324" t="s">
+        <v>699</v>
+      </c>
+      <c r="G324" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>95</v>
+      </c>
+      <c r="B325" t="s">
+        <v>4</v>
+      </c>
+      <c r="C325" t="s">
+        <v>668</v>
+      </c>
+      <c r="D325" t="s">
+        <v>700</v>
+      </c>
+      <c r="E325" t="s">
+        <v>701</v>
+      </c>
+      <c r="F325" t="s">
+        <v>704</v>
+      </c>
+      <c r="G325" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>95</v>
+      </c>
+      <c r="B326" t="s">
+        <v>4</v>
+      </c>
+      <c r="C326" t="s">
+        <v>668</v>
+      </c>
+      <c r="D326" t="s">
+        <v>700</v>
+      </c>
+      <c r="E326" t="s">
+        <v>702</v>
+      </c>
+      <c r="F326" t="s">
+        <v>433</v>
+      </c>
+      <c r="G326" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>95</v>
+      </c>
+      <c r="B327" t="s">
+        <v>4</v>
+      </c>
+      <c r="C327" t="s">
+        <v>668</v>
+      </c>
+      <c r="D327" t="s">
+        <v>700</v>
+      </c>
+      <c r="E327" t="s">
+        <v>703</v>
+      </c>
+      <c r="F327" t="s">
+        <v>677</v>
+      </c>
+      <c r="G327" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>96</v>
+      </c>
+      <c r="B328" t="s">
+        <v>4</v>
+      </c>
+      <c r="C328" t="s">
+        <v>668</v>
+      </c>
+      <c r="D328" t="s">
+        <v>700</v>
+      </c>
+      <c r="E328" t="s">
+        <v>705</v>
+      </c>
+      <c r="F328" t="s">
+        <v>709</v>
+      </c>
+      <c r="G328" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>96</v>
+      </c>
+      <c r="B329" t="s">
+        <v>4</v>
+      </c>
+      <c r="C329" t="s">
+        <v>668</v>
+      </c>
+      <c r="D329" t="s">
+        <v>700</v>
+      </c>
+      <c r="E329" t="s">
+        <v>706</v>
+      </c>
+      <c r="F329" t="s">
+        <v>710</v>
+      </c>
+      <c r="G329" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>96</v>
+      </c>
+      <c r="B330" t="s">
+        <v>4</v>
+      </c>
+      <c r="C330" t="s">
+        <v>668</v>
+      </c>
+      <c r="D330" t="s">
+        <v>700</v>
+      </c>
+      <c r="E330" t="s">
+        <v>707</v>
+      </c>
+      <c r="F330" t="s">
+        <v>711</v>
+      </c>
+      <c r="G330" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>96</v>
+      </c>
+      <c r="B331" t="s">
+        <v>4</v>
+      </c>
+      <c r="C331" t="s">
+        <v>668</v>
+      </c>
+      <c r="D331" t="s">
+        <v>700</v>
+      </c>
+      <c r="E331" t="s">
+        <v>708</v>
+      </c>
+      <c r="F331" t="s">
+        <v>699</v>
+      </c>
+      <c r="G331" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>97</v>
+      </c>
+      <c r="B332" t="s">
+        <v>4</v>
+      </c>
+      <c r="C332" t="s">
+        <v>668</v>
+      </c>
+      <c r="D332" t="s">
+        <v>700</v>
+      </c>
+      <c r="E332" t="s">
+        <v>712</v>
+      </c>
+      <c r="F332" t="s">
+        <v>714</v>
+      </c>
+      <c r="G332" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>97</v>
+      </c>
+      <c r="B333" t="s">
+        <v>4</v>
+      </c>
+      <c r="C333" t="s">
+        <v>668</v>
+      </c>
+      <c r="D333" t="s">
+        <v>700</v>
+      </c>
+      <c r="E333" t="s">
+        <v>713</v>
+      </c>
+      <c r="F333" t="s">
+        <v>699</v>
+      </c>
+      <c r="G333" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>98</v>
+      </c>
+      <c r="B334" t="s">
+        <v>4</v>
+      </c>
+      <c r="C334" t="s">
+        <v>668</v>
+      </c>
+      <c r="D334" t="s">
+        <v>715</v>
+      </c>
+      <c r="E334" t="s">
+        <v>716</v>
+      </c>
+      <c r="F334" t="s">
+        <v>723</v>
+      </c>
+      <c r="G334" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>98</v>
+      </c>
+      <c r="B335" t="s">
+        <v>4</v>
+      </c>
+      <c r="C335" t="s">
+        <v>668</v>
+      </c>
+      <c r="D335" t="s">
+        <v>715</v>
+      </c>
+      <c r="E335" t="s">
+        <v>717</v>
+      </c>
+      <c r="F335" t="s">
+        <v>699</v>
+      </c>
+      <c r="G335" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>98</v>
+      </c>
+      <c r="B336" t="s">
+        <v>4</v>
+      </c>
+      <c r="C336" t="s">
+        <v>668</v>
+      </c>
+      <c r="D336" t="s">
+        <v>715</v>
+      </c>
+      <c r="E336" t="s">
+        <v>718</v>
+      </c>
+      <c r="F336" t="s">
+        <v>724</v>
+      </c>
+      <c r="G336" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>98</v>
+      </c>
+      <c r="B337" t="s">
+        <v>4</v>
+      </c>
+      <c r="C337" t="s">
+        <v>668</v>
+      </c>
+      <c r="D337" t="s">
+        <v>715</v>
+      </c>
+      <c r="E337" t="s">
+        <v>719</v>
+      </c>
+      <c r="F337" t="s">
+        <v>725</v>
+      </c>
+      <c r="G337" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>98</v>
+      </c>
+      <c r="B338" t="s">
+        <v>4</v>
+      </c>
+      <c r="C338" t="s">
+        <v>668</v>
+      </c>
+      <c r="D338" t="s">
+        <v>715</v>
+      </c>
+      <c r="E338" t="s">
+        <v>720</v>
+      </c>
+      <c r="F338" t="s">
+        <v>684</v>
+      </c>
+      <c r="G338" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>99</v>
+      </c>
+      <c r="B339" t="s">
+        <v>4</v>
+      </c>
+      <c r="C339" t="s">
+        <v>668</v>
+      </c>
+      <c r="D339" t="s">
+        <v>715</v>
+      </c>
+      <c r="E339" t="s">
+        <v>721</v>
+      </c>
+      <c r="F339" t="s">
+        <v>726</v>
+      </c>
+      <c r="G339" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>98</v>
+      </c>
+      <c r="B340" t="s">
+        <v>4</v>
+      </c>
+      <c r="C340" t="s">
+        <v>668</v>
+      </c>
+      <c r="D340" t="s">
+        <v>715</v>
+      </c>
+      <c r="E340" t="s">
+        <v>722</v>
+      </c>
+      <c r="F340" t="s">
+        <v>727</v>
+      </c>
+      <c r="G340" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>99</v>
+      </c>
+      <c r="B341" t="s">
+        <v>4</v>
+      </c>
+      <c r="C341" t="s">
+        <v>668</v>
+      </c>
+      <c r="D341" t="s">
+        <v>728</v>
+      </c>
+      <c r="E341" t="s">
+        <v>730</v>
+      </c>
+      <c r="F341" t="s">
+        <v>682</v>
+      </c>
+      <c r="G341" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>99</v>
+      </c>
+      <c r="B342" t="s">
+        <v>4</v>
+      </c>
+      <c r="C342" t="s">
+        <v>668</v>
+      </c>
+      <c r="D342" t="s">
+        <v>728</v>
+      </c>
+      <c r="E342" t="s">
+        <v>731</v>
+      </c>
+      <c r="F342" t="s">
+        <v>735</v>
+      </c>
+      <c r="G342" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>99</v>
+      </c>
+      <c r="B343" t="s">
+        <v>4</v>
+      </c>
+      <c r="C343" t="s">
+        <v>668</v>
+      </c>
+      <c r="D343" t="s">
+        <v>729</v>
+      </c>
+      <c r="E343" t="s">
+        <v>732</v>
+      </c>
+      <c r="F343" t="s">
+        <v>736</v>
+      </c>
+      <c r="G343" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>99</v>
+      </c>
+      <c r="B344" t="s">
+        <v>4</v>
+      </c>
+      <c r="C344" t="s">
+        <v>668</v>
+      </c>
+      <c r="D344" t="s">
+        <v>729</v>
+      </c>
+      <c r="E344" t="s">
+        <v>733</v>
+      </c>
+      <c r="F344" t="s">
+        <v>737</v>
+      </c>
+      <c r="G344" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>99</v>
+      </c>
+      <c r="B345" t="s">
+        <v>4</v>
+      </c>
+      <c r="C345" t="s">
+        <v>668</v>
+      </c>
+      <c r="D345" t="s">
+        <v>729</v>
+      </c>
+      <c r="E345" t="s">
+        <v>734</v>
+      </c>
+      <c r="F345" t="s">
+        <v>738</v>
+      </c>
+      <c r="G345" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>100</v>
+      </c>
+      <c r="B346" t="s">
+        <v>4</v>
+      </c>
+      <c r="C346" t="s">
+        <v>668</v>
+      </c>
+      <c r="D346" t="s">
+        <v>739</v>
+      </c>
+      <c r="E346" t="s">
+        <v>741</v>
+      </c>
+      <c r="F346" t="s">
+        <v>748</v>
+      </c>
+      <c r="G346" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>100</v>
+      </c>
+      <c r="B347" t="s">
+        <v>4</v>
+      </c>
+      <c r="C347" t="s">
+        <v>668</v>
+      </c>
+      <c r="D347" t="s">
+        <v>739</v>
+      </c>
+      <c r="E347" t="s">
+        <v>742</v>
+      </c>
+      <c r="F347" t="s">
+        <v>749</v>
+      </c>
+      <c r="G347" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>100</v>
+      </c>
+      <c r="B348" t="s">
+        <v>4</v>
+      </c>
+      <c r="C348" t="s">
+        <v>668</v>
+      </c>
+      <c r="D348" t="s">
+        <v>740</v>
+      </c>
+      <c r="E348" t="s">
+        <v>743</v>
+      </c>
+      <c r="F348" t="s">
+        <v>750</v>
+      </c>
+      <c r="G348" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>100</v>
+      </c>
+      <c r="B349" t="s">
+        <v>4</v>
+      </c>
+      <c r="C349" t="s">
+        <v>668</v>
+      </c>
+      <c r="D349" t="s">
+        <v>740</v>
+      </c>
+      <c r="E349" t="s">
+        <v>744</v>
+      </c>
+      <c r="F349" t="s">
+        <v>751</v>
+      </c>
+      <c r="G349" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>100</v>
+      </c>
+      <c r="B350" t="s">
+        <v>4</v>
+      </c>
+      <c r="C350" t="s">
+        <v>668</v>
+      </c>
+      <c r="D350" t="s">
+        <v>740</v>
+      </c>
+      <c r="E350" t="s">
+        <v>745</v>
+      </c>
+      <c r="F350" t="s">
+        <v>752</v>
+      </c>
+      <c r="G350" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>100</v>
+      </c>
+      <c r="B351" t="s">
+        <v>4</v>
+      </c>
+      <c r="C351" t="s">
+        <v>668</v>
+      </c>
+      <c r="D351" t="s">
+        <v>740</v>
+      </c>
+      <c r="E351" t="s">
+        <v>746</v>
+      </c>
+      <c r="F351" t="s">
+        <v>433</v>
+      </c>
+      <c r="G351" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>100</v>
+      </c>
+      <c r="B352" t="s">
+        <v>4</v>
+      </c>
+      <c r="C352" t="s">
+        <v>668</v>
+      </c>
+      <c r="D352" t="s">
+        <v>740</v>
+      </c>
+      <c r="E352" t="s">
+        <v>747</v>
+      </c>
+      <c r="F352" t="s">
+        <v>699</v>
+      </c>
+      <c r="G352" t="s">
         <v>7</v>
       </c>
     </row>

--- a/documents/troubleshooting.xlsx
+++ b/documents/troubleshooting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\chatbot_hipotese\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C91FF8-FA72-4E32-BA7F-F49BCF85DAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF5EBAB-EA6C-4152-9DA3-14563541BFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{FECC2DB1-AD25-4A84-8CFF-001A97E8E6FD}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="1108">
   <si>
     <t>type</t>
   </si>
@@ -3303,6 +3303,69 @@
   </si>
   <si>
     <t>Visually inspect the breaker for discoloration that would indicate loose connections; Have the electricians check and correctly tighten the connections; /Note/ Machine vibrations can cause cables to loosen and can also cause cold flow when aluminum cables are used; Cold flow refers to the contraction of the aluminum when the line is cooling down after the load is removed; This shrinkage can sometimes cause the connections to loosen.</t>
+  </si>
+  <si>
+    <t>Improper wire size</t>
+  </si>
+  <si>
+    <t>Replace with the correct size wire. /Note/ Since the cable acts as a heat sink and carries heat away from the breaker, the proper wire size is important.</t>
+  </si>
+  <si>
+    <t>If the temperature fluctuates and frequently exceeds 140 °F, install an ambient compensating breaker.</t>
+  </si>
+  <si>
+    <t>Breaker tripping magnetically</t>
+  </si>
+  <si>
+    <t>Trip unit improperly torqued to base</t>
+  </si>
+  <si>
+    <t>High inrush current from the motor</t>
+  </si>
+  <si>
+    <t>Adjust the magnetic trip rating to the next higher setting or until the breaker does not trip when the motor is started.</t>
+  </si>
+  <si>
+    <t>Remove the trip unit from the base, and inspect it for discoloration; Reinstall the trip unit, and torque it to the base in accordance with the designed settings that come with each unit. /Note/ A bright cherry red color indicates a temperature of approximately 1,45 0 °F for the trip unit; If the unit has experienced thermal damage, then it must be replaced.</t>
+  </si>
+  <si>
+    <t>Breaker tripping magnetically (continued)</t>
+  </si>
+  <si>
+    <t>Breaker tested with incorrect type of field testing</t>
+  </si>
+  <si>
+    <t>Retest, using a six-cycle impulse test. /Note/ A slow or gradual increase in current until the trip range is reached results in the breaker tripping at a lower value than that indicated on the trip unit; A six-cycle impulse test should be used; This is how the breakers are calibrated at the factory.</t>
+  </si>
+  <si>
+    <t>Mechanical and electrical malfunctions</t>
+  </si>
+  <si>
+    <t>High peak current on Y~delta starter transfer during open transition</t>
+  </si>
+  <si>
+    <t>High humidity</t>
+  </si>
+  <si>
+    <t>Remove the breakers from high humidity locations since high humidity can cause dielectric and other problems associated with moisture. Install heaters in the enclosure if the breakers cannot be removed l from the humidity</t>
+  </si>
+  <si>
+    <t>Close the open circuit; /Note/ If an open circuit happens during transfer, the peak current during transfer could exceed 20 times the full-load amperes; /Caution/ An extremely high magnetic trip setting can be supplied on the breaker, but the desired motor protection will be lost.</t>
+  </si>
+  <si>
+    <t>Mechanical and electrical malfunctions (continued)</t>
+  </si>
+  <si>
+    <t>Corrosive environment</t>
+  </si>
+  <si>
+    <t>Attachments not functioning correctly</t>
+  </si>
+  <si>
+    <t>Remove the breakers from corrosive environments if possible.</t>
+  </si>
+  <si>
+    <t>Remove the cover from the breaker, and determine what type of attachment is fitted; Ensure that the attachment is functioning correctly; Ensure that the proper voltage is applied to an undervoltage release so that the breaker will operate when shunt trips are used; /Warning/ Ensure that the shunt trip is not energized while the operator is trying to close the breaker.</t>
   </si>
 </sst>
 </file>
@@ -3847,8 +3910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BF1FA3-F49E-46EE-B806-EC0466971FE5}">
   <dimension ref="A1:F515"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A502" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E493" sqref="E493:F495"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N270" sqref="N270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13750,7 +13813,7 @@
       <c r="C495" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="D495" t="s">
+      <c r="D495" s="3" t="s">
         <v>1084</v>
       </c>
       <c r="E495" s="3" t="s">
@@ -13771,13 +13834,13 @@
         <v>1057</v>
       </c>
       <c r="D496" s="3" t="s">
-        <v>7</v>
+        <v>1084</v>
       </c>
       <c r="E496" s="3" t="s">
-        <v>7</v>
+        <v>1087</v>
       </c>
       <c r="F496" s="3" t="s">
-        <v>7</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
@@ -13791,13 +13854,13 @@
         <v>1057</v>
       </c>
       <c r="D497" s="3" t="s">
-        <v>7</v>
+        <v>1084</v>
       </c>
       <c r="E497" s="3" t="s">
-        <v>7</v>
+        <v>1027</v>
       </c>
       <c r="F497" s="3" t="s">
-        <v>7</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
@@ -13811,13 +13874,13 @@
         <v>1057</v>
       </c>
       <c r="D498" s="3" t="s">
-        <v>7</v>
+        <v>1084</v>
       </c>
       <c r="E498" s="3" t="s">
-        <v>7</v>
+        <v>1091</v>
       </c>
       <c r="F498" s="3" t="s">
-        <v>7</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
@@ -13831,13 +13894,13 @@
         <v>1057</v>
       </c>
       <c r="D499" s="3" t="s">
-        <v>7</v>
+        <v>1090</v>
       </c>
       <c r="E499" s="3" t="s">
-        <v>7</v>
+        <v>1092</v>
       </c>
       <c r="F499" s="3" t="s">
-        <v>7</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
@@ -13851,13 +13914,13 @@
         <v>1057</v>
       </c>
       <c r="D500" s="3" t="s">
-        <v>7</v>
+        <v>1095</v>
       </c>
       <c r="E500" s="3" t="s">
-        <v>7</v>
+        <v>1096</v>
       </c>
       <c r="F500" s="3" t="s">
-        <v>7</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
@@ -13871,13 +13934,13 @@
         <v>1057</v>
       </c>
       <c r="D501" s="3" t="s">
-        <v>7</v>
+        <v>1095</v>
       </c>
       <c r="E501" s="3" t="s">
-        <v>7</v>
+        <v>1099</v>
       </c>
       <c r="F501" s="3" t="s">
-        <v>7</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
@@ -13891,13 +13954,13 @@
         <v>1057</v>
       </c>
       <c r="D502" s="3" t="s">
-        <v>7</v>
+        <v>1098</v>
       </c>
       <c r="E502" s="3" t="s">
-        <v>7</v>
+        <v>1100</v>
       </c>
       <c r="F502" s="3" t="s">
-        <v>7</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
@@ -13911,13 +13974,13 @@
         <v>1057</v>
       </c>
       <c r="D503" s="3" t="s">
-        <v>7</v>
+        <v>1103</v>
       </c>
       <c r="E503" s="3" t="s">
-        <v>7</v>
+        <v>1104</v>
       </c>
       <c r="F503" s="3" t="s">
-        <v>7</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
@@ -13931,13 +13994,13 @@
         <v>1057</v>
       </c>
       <c r="D504" s="3" t="s">
-        <v>7</v>
+        <v>1103</v>
       </c>
       <c r="E504" s="3" t="s">
-        <v>7</v>
+        <v>1105</v>
       </c>
       <c r="F504" s="3" t="s">
-        <v>7</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">

--- a/documents/troubleshooting.xlsx
+++ b/documents/troubleshooting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\chatbot_hipotese\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9FDDDC-A719-401E-8C9F-3340B0D1B6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5639FA1-F8D2-4FF1-B900-01F5B17A0185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FECC2DB1-AD25-4A84-8CFF-001A97E8E6FD}"/>
   </bookViews>
@@ -3439,24 +3439,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -3564,6 +3546,24 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color auto="1"/>
@@ -3604,14 +3604,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C7C41C2F-BEC4-4089-B695-65F94CB7C66D}" name="Tabela1" displayName="Tabela1" ref="B1:F517" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C7C41C2F-BEC4-4089-B695-65F94CB7C66D}" name="Tabela1" displayName="Tabela1" ref="B1:F517" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="B1:F517" xr:uid="{C7C41C2F-BEC4-4089-B695-65F94CB7C66D}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3C1BB9CA-B171-4B63-B7D7-7A28668C352B}" name="type" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{E4D8F292-F951-45BC-957F-AF9E785457E8}" name="equipament" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{97042018-CDC6-443D-8650-8B04600A6178}" name="problem" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{CDA52A99-E496-4576-9036-16165E7C4377}" name="cause" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{D37ADE47-88AF-4D05-A5A2-35C00BF5F344}" name="action" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{3C1BB9CA-B171-4B63-B7D7-7A28668C352B}" name="type" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{E4D8F292-F951-45BC-957F-AF9E785457E8}" name="equipament" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{97042018-CDC6-443D-8650-8B04600A6178}" name="problem" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{CDA52A99-E496-4576-9036-16165E7C4377}" name="cause" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{D37ADE47-88AF-4D05-A5A2-35C00BF5F344}" name="action" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3917,7 +3917,7 @@
   <dimension ref="A1:F517"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/documents/troubleshooting.xlsx
+++ b/documents/troubleshooting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\chatbot_hipotese\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5639FA1-F8D2-4FF1-B900-01F5B17A0185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B71566-646A-45A8-8619-74F226D02A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FECC2DB1-AD25-4A84-8CFF-001A97E8E6FD}"/>
   </bookViews>
@@ -3378,8 +3378,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3422,7 +3430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3434,6 +3442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3914,10 +3923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BF1FA3-F49E-46EE-B806-EC0466971FE5}">
-  <dimension ref="A1:F517"/>
+  <dimension ref="A1:L517"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3929,7 +3938,7 @@
     <col min="5" max="6" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>147</v>
       </c>
@@ -3949,7 +3958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3969,7 +3978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3989,7 +3998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -4008,8 +4017,9 @@
       <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -4029,7 +4039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -4049,7 +4059,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -4069,7 +4079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -4089,7 +4099,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -4109,7 +4119,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -4129,7 +4139,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -4149,7 +4159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -4169,7 +4179,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -4189,7 +4199,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -4209,7 +4219,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>4</v>
       </c>
@@ -4229,7 +4239,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>4</v>
       </c>

--- a/documents/troubleshooting.xlsx
+++ b/documents/troubleshooting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\chatbot_hipotese\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE81DF3C-3F9A-45BC-80EB-F523F95E0311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF09DBBF-3414-4650-A8F5-EB246B6103DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FECC2DB1-AD25-4A84-8CFF-001A97E8E6FD}"/>
+    <workbookView xWindow="-19800" yWindow="690" windowWidth="18000" windowHeight="9360" xr2:uid="{FECC2DB1-AD25-4A84-8CFF-001A97E8E6FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -3926,8 +3926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BF1FA3-F49E-46EE-B806-EC0466971FE5}">
   <dimension ref="A1:L517"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A180" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/documents/troubleshooting.xlsx
+++ b/documents/troubleshooting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herik\OneDrive\Área de Trabalho\chatbot_hipotese\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\chatbot_hipotese\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E5F186-BB41-44F9-BA07-A89B453ABB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B1E5C0-0D4E-459F-B9BA-2DA40FD231E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FECC2DB1-AD25-4A84-8CFF-001A97E8E6FD}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FECC2DB1-AD25-4A84-8CFF-001A97E8E6FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -3928,8 +3928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BF1FA3-F49E-46EE-B806-EC0466971FE5}">
   <dimension ref="A1:L517"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E210" sqref="E210"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A361" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F493" sqref="F493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
